--- a/docs/スケジュール/ポーカー改修スケジュール.xlsx
+++ b/docs/スケジュール/ポーカー改修スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65430DA-1BD9-46CA-91CB-3A602F61D9E7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C7314B-9A91-430F-AC58-10CF056914DF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="7764" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>タスク</t>
     <phoneticPr fontId="1"/>
@@ -184,17 +184,155 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>完了済み</t>
+    <t>未着手・・・0％</t>
+    <rPh sb="0" eb="3">
+      <t>ミチャクシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とりあえずできた・・・60％</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了・・・100％</t>
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指摘対応中・・・70％</t>
+    <rPh sb="0" eb="2">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指摘対応完了・・・80％</t>
+    <rPh sb="0" eb="2">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2回目の)指摘対応以降・・・90％</t>
+    <rPh sb="2" eb="4">
+      <t>カイメ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0～60％の間は大体の値を入力する</t>
+    <rPh sb="6" eb="7">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ダイタイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗率について(子タスク)</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョク</t>
+    </rPh>
     <rPh sb="2" eb="3">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>×</t>
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗率について(子タスク以外)</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直下のタスク(ユースケース記述なら、ユーザー登録・ログイン等、基本設計修正ならユースケース記述・ワイヤーフレーム等)</t>
+    <rPh sb="0" eb="2">
+      <t>チョッカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ナド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>の進捗を見て、大体の値を入力する。</t>
+    <rPh sb="1" eb="3">
+      <t>シンチョク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ダイタイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -233,7 +371,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -262,30 +400,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -304,17 +422,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -364,7 +471,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -374,40 +481,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -416,13 +505,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -739,18 +834,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1353E68-709A-4869-9FB5-3F7A241FCBD2}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.69921875" customWidth="1"/>
     <col min="2" max="2" width="4.8984375" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -766,628 +864,752 @@
       <c r="G1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="7">
+        <v>43483</v>
+      </c>
+      <c r="F2" s="7">
+        <v>43490</v>
+      </c>
+      <c r="G2" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="I2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="11">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="8">
         <v>43483</v>
       </c>
-      <c r="F2" s="17">
-        <v>43490</v>
-      </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="18" t="s">
+      <c r="F3" s="8">
+        <v>43490</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="I3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="8">
+        <v>43483</v>
+      </c>
+      <c r="F4" s="8">
+        <v>43490</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="8">
+        <v>43483</v>
+      </c>
+      <c r="F5" s="8">
+        <v>43490</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="8">
+        <v>43483</v>
+      </c>
+      <c r="F6" s="8">
+        <v>43490</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="8">
+        <v>43483</v>
+      </c>
+      <c r="F7" s="8">
+        <v>43490</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="13">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="8">
         <v>43483</v>
       </c>
-      <c r="F8" s="6">
-        <v>43490</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
+      <c r="F8" s="8">
+        <v>43490</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="8">
+        <v>43483</v>
+      </c>
+      <c r="F9" s="8">
+        <v>43490</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="8">
+        <v>43483</v>
+      </c>
+      <c r="F10" s="8">
+        <v>43490</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="8">
+        <v>43483</v>
+      </c>
+      <c r="F11" s="8">
+        <v>43490</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="8">
+        <v>43483</v>
+      </c>
+      <c r="F12" s="8">
+        <v>43490</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="4" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="8">
+        <v>43483</v>
+      </c>
+      <c r="F13" s="8">
+        <v>43490</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="8">
+        <v>43485</v>
+      </c>
+      <c r="F14" s="8">
+        <v>43490</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="13">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="8">
         <v>43485</v>
       </c>
-      <c r="F15" s="6">
-        <v>43490</v>
-      </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5" t="s">
+      <c r="F15" s="8">
+        <v>43490</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5" t="s">
+      <c r="D16" s="4"/>
+      <c r="E16" s="8">
+        <v>43485</v>
+      </c>
+      <c r="F16" s="8">
+        <v>43490</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="8">
+        <v>43485</v>
+      </c>
+      <c r="F17" s="8">
+        <v>43490</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="8">
+        <v>43485</v>
+      </c>
+      <c r="F18" s="8">
+        <v>43490</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5" t="s">
+      <c r="D19" s="4"/>
+      <c r="E19" s="8">
+        <v>43485</v>
+      </c>
+      <c r="F19" s="8">
+        <v>43490</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="13">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="8">
         <v>43485</v>
       </c>
-      <c r="F20" s="6">
-        <v>43490</v>
-      </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5" t="s">
+      <c r="F20" s="8">
+        <v>43490</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5" t="s">
+      <c r="D21" s="4"/>
+      <c r="E21" s="8">
+        <v>43485</v>
+      </c>
+      <c r="F21" s="8">
+        <v>43490</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5" t="s">
+      <c r="D22" s="4"/>
+      <c r="E22" s="8">
+        <v>43485</v>
+      </c>
+      <c r="F22" s="8">
+        <v>43490</v>
+      </c>
+      <c r="G22" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5" t="s">
+      <c r="D23" s="4"/>
+      <c r="E23" s="8">
+        <v>43485</v>
+      </c>
+      <c r="F23" s="8">
+        <v>43490</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5" t="s">
+      <c r="D24" s="4"/>
+      <c r="E24" s="8">
+        <v>43485</v>
+      </c>
+      <c r="F24" s="8">
+        <v>43490</v>
+      </c>
+      <c r="G24" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="13">
-        <v>43485</v>
-      </c>
-      <c r="F25" s="6">
-        <v>43490</v>
-      </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5" t="s">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="8">
+        <v>43488</v>
+      </c>
+      <c r="F25" s="8">
+        <v>43490</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5" t="s">
+      <c r="D26" s="4"/>
+      <c r="E26" s="8">
+        <v>43488</v>
+      </c>
+      <c r="F26" s="8">
+        <v>43490</v>
+      </c>
+      <c r="G26" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5" t="s">
+      <c r="D27" s="4"/>
+      <c r="E27" s="8">
+        <v>43488</v>
+      </c>
+      <c r="F27" s="8">
+        <v>43490</v>
+      </c>
+      <c r="G27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5" t="s">
+      <c r="D28" s="4"/>
+      <c r="E28" s="8">
+        <v>43488</v>
+      </c>
+      <c r="F28" s="8">
+        <v>43490</v>
+      </c>
+      <c r="G28" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="4" t="s">
+      <c r="D29" s="4"/>
+      <c r="E29" s="8">
+        <v>43488</v>
+      </c>
+      <c r="F29" s="8">
+        <v>43490</v>
+      </c>
+      <c r="G29" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="13">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="8">
         <v>43491</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="8">
         <v>43499</v>
       </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5" t="s">
+      <c r="G30" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5" t="s">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="8">
+        <v>43491</v>
+      </c>
+      <c r="F31" s="8">
+        <v>43496</v>
+      </c>
+      <c r="G31" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5" t="s">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="8">
+        <v>43491</v>
+      </c>
+      <c r="F32" s="8">
+        <v>43496</v>
+      </c>
+      <c r="G32" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5" t="s">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="8">
+        <v>43491</v>
+      </c>
+      <c r="F33" s="8">
+        <v>43496</v>
+      </c>
+      <c r="G33" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5" t="s">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="8">
+        <v>43491</v>
+      </c>
+      <c r="F34" s="8">
+        <v>43496</v>
+      </c>
+      <c r="G34" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="4" t="s">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="8">
+        <v>43497</v>
+      </c>
+      <c r="F35" s="8">
+        <v>43499</v>
+      </c>
+      <c r="G35" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="13">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="8">
         <v>43500</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="8">
         <v>43512</v>
       </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5" t="s">
+      <c r="G36" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37" s="3"/>
+      <c r="B37" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5" t="s">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="8">
+        <v>43500</v>
+      </c>
+      <c r="F37" s="8">
+        <v>43505</v>
+      </c>
+      <c r="G37" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5" t="s">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="8">
+        <v>43500</v>
+      </c>
+      <c r="F38" s="8">
+        <v>43505</v>
+      </c>
+      <c r="G38" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5" t="s">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="8">
+        <v>43506</v>
+      </c>
+      <c r="F39" s="8">
+        <v>43512</v>
+      </c>
+      <c r="G39" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40" s="3"/>
+      <c r="B40" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" s="4" t="s">
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="8">
+        <v>43506</v>
+      </c>
+      <c r="F40" s="8">
+        <v>43512</v>
+      </c>
+      <c r="G40" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="13">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="8">
         <v>43513</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="8">
         <v>43523</v>
       </c>
-      <c r="G41" s="12"/>
-      <c r="H41" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" s="4"/>
-      <c r="B42" s="5" t="s">
+      <c r="G41" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" s="3"/>
+      <c r="B42" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="8"/>
-      <c r="B43" s="9" t="s">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="8">
+        <v>43513</v>
+      </c>
+      <c r="F42" s="8">
+        <v>43518</v>
+      </c>
+      <c r="G42" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="10" t="s">
-        <v>23</v>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="11">
+        <v>43519</v>
+      </c>
+      <c r="F43" s="11">
+        <v>43523</v>
+      </c>
+      <c r="G43" s="13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/スケジュール/ポーカー改修スケジュール.xlsx
+++ b/docs/スケジュール/ポーカー改修スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C7314B-9A91-430F-AC58-10CF056914DF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172D6BBE-5723-43CD-905A-9D3A25CCEE9A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="7764" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
@@ -836,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1353E68-709A-4869-9FB5-3F7A241FCBD2}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1269,7 +1269,7 @@
         <v>43490</v>
       </c>
       <c r="G23" s="12">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">

--- a/docs/スケジュール/ポーカー改修スケジュール.xlsx
+++ b/docs/スケジュール/ポーカー改修スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172D6BBE-5723-43CD-905A-9D3A25CCEE9A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1962FD8D-492A-479D-BAA0-6B0D950870DA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="7764" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
@@ -836,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1353E68-709A-4869-9FB5-3F7A241FCBD2}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -919,7 +919,7 @@
         <v>43483</v>
       </c>
       <c r="F4" s="8">
-        <v>43490</v>
+        <v>43488</v>
       </c>
       <c r="G4" s="12">
         <v>0.9</v>
@@ -939,7 +939,7 @@
         <v>43483</v>
       </c>
       <c r="F5" s="8">
-        <v>43490</v>
+        <v>43488</v>
       </c>
       <c r="G5" s="12">
         <v>0.9</v>
@@ -959,7 +959,7 @@
         <v>43483</v>
       </c>
       <c r="F6" s="8">
-        <v>43490</v>
+        <v>43488</v>
       </c>
       <c r="G6" s="12">
         <v>0.9</v>
@@ -979,7 +979,7 @@
         <v>43483</v>
       </c>
       <c r="F7" s="8">
-        <v>43490</v>
+        <v>43488</v>
       </c>
       <c r="G7" s="12">
         <v>0.9</v>
@@ -1116,7 +1116,7 @@
         <v>43490</v>
       </c>
       <c r="G14" s="12">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
@@ -1130,10 +1130,10 @@
         <v>43485</v>
       </c>
       <c r="F15" s="8">
-        <v>43490</v>
+        <v>43488</v>
       </c>
       <c r="G15" s="12">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
@@ -1147,10 +1147,10 @@
         <v>43485</v>
       </c>
       <c r="F16" s="8">
-        <v>43490</v>
+        <v>43488</v>
       </c>
       <c r="G16" s="12">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
@@ -1164,10 +1164,10 @@
         <v>43485</v>
       </c>
       <c r="F17" s="8">
-        <v>43490</v>
+        <v>43488</v>
       </c>
       <c r="G17" s="12">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
@@ -1181,10 +1181,10 @@
         <v>43485</v>
       </c>
       <c r="F18" s="8">
-        <v>43490</v>
+        <v>43488</v>
       </c>
       <c r="G18" s="12">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -1198,10 +1198,10 @@
         <v>43485</v>
       </c>
       <c r="F19" s="8">
-        <v>43490</v>
+        <v>43488</v>
       </c>
       <c r="G19" s="12">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -1218,7 +1218,7 @@
         <v>43490</v>
       </c>
       <c r="G20" s="12">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
@@ -1235,7 +1235,7 @@
         <v>43490</v>
       </c>
       <c r="G21" s="12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="8">
-        <v>43485</v>
+        <v>43488</v>
       </c>
       <c r="F22" s="8">
         <v>43490</v>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="8">
-        <v>43485</v>
+        <v>43488</v>
       </c>
       <c r="F24" s="8">
         <v>43490</v>

--- a/docs/スケジュール/ポーカー改修スケジュール.xlsx
+++ b/docs/スケジュール/ポーカー改修スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1962FD8D-492A-479D-BAA0-6B0D950870DA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDE2700-345B-4203-A2D8-7B256F571CFB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="7764" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
@@ -191,10 +191,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>とりあえずできた・・・60％</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>完了・・・100％</t>
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
@@ -202,45 +198,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>指摘対応中・・・70％</t>
-    <rPh sb="0" eb="2">
-      <t>シテキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>指摘対応完了・・・80％</t>
-    <rPh sb="0" eb="2">
-      <t>シテキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(2回目の)指摘対応以降・・・90％</t>
-    <rPh sb="2" eb="4">
-      <t>カイメ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シテキ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>0～60％の間は大体の値を入力する</t>
     <rPh sb="6" eb="7">
       <t>アイダ</t>
@@ -332,6 +289,43 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成済・・・70％</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー中・・・80％</t>
+    <rPh sb="4" eb="5">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指摘対応中・・・90％</t>
+    <rPh sb="0" eb="2">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -371,7 +365,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -465,22 +459,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -493,9 +533,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -517,7 +554,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -836,781 +891,822 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1353E68-709A-4869-9FB5-3F7A241FCBD2}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.69921875" customWidth="1"/>
     <col min="2" max="2" width="4.8984375" customWidth="1"/>
     <col min="5" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.796875" customWidth="1"/>
     <col min="9" max="9" width="35.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="14" t="s">
-        <v>29</v>
+      <c r="H1" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="7">
-        <v>43483</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="5">
+        <v>43487</v>
+      </c>
+      <c r="F2" s="5">
         <v>43490</v>
       </c>
-      <c r="G2" s="15">
-        <v>0.9</v>
-      </c>
+      <c r="G2" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="H2" s="12"/>
       <c r="I2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="8">
-        <v>43483</v>
-      </c>
-      <c r="F3" s="8">
-        <v>43490</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0.9</v>
-      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="5">
+        <v>43487</v>
+      </c>
+      <c r="F3" s="5">
+        <v>43489</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="H3" s="13"/>
       <c r="I3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="5">
+        <v>43487</v>
+      </c>
+      <c r="F4" s="5">
+        <v>43489</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="5">
+        <v>43487</v>
+      </c>
+      <c r="F5" s="5">
+        <v>43489</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="5">
+        <v>43487</v>
+      </c>
+      <c r="F6" s="5">
+        <v>43489</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="8">
-        <v>43483</v>
-      </c>
-      <c r="F4" s="8">
-        <v>43488</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="8">
-        <v>43483</v>
-      </c>
-      <c r="F5" s="8">
-        <v>43488</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="8">
-        <v>43483</v>
-      </c>
-      <c r="F6" s="8">
-        <v>43488</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="I6" t="s">
-        <v>27</v>
-      </c>
-    </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="8">
-        <v>43483</v>
-      </c>
-      <c r="F7" s="8">
-        <v>43488</v>
-      </c>
-      <c r="G7" s="12">
-        <v>0.9</v>
-      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="5">
+        <v>43487</v>
+      </c>
+      <c r="F7" s="5">
+        <v>43489</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="H7" s="13"/>
       <c r="I7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="8">
-        <v>43483</v>
-      </c>
-      <c r="F8" s="8">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="5">
+        <v>43488</v>
+      </c>
+      <c r="F8" s="5">
+        <v>43489</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="5">
+        <v>43488</v>
+      </c>
+      <c r="F9" s="5">
+        <v>43488</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="5">
+        <v>43488</v>
+      </c>
+      <c r="F10" s="5">
+        <v>43488</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="5">
+        <v>43488</v>
+      </c>
+      <c r="F11" s="5">
+        <v>43489</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="5">
+        <v>43488</v>
+      </c>
+      <c r="F12" s="5">
+        <v>43489</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="5">
         <v>43490</v>
       </c>
-      <c r="G8" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="I8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
+      <c r="F13" s="5">
+        <v>43490</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="5">
+        <v>43487</v>
+      </c>
+      <c r="F14" s="5">
+        <v>43491</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="5">
+        <v>43487</v>
+      </c>
+      <c r="F15" s="5">
+        <v>43489</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="8">
-        <v>43483</v>
-      </c>
-      <c r="F9" s="8">
+      <c r="D16" s="2"/>
+      <c r="E16" s="5">
+        <v>43487</v>
+      </c>
+      <c r="F16" s="5">
+        <v>43489</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="5">
+        <v>43487</v>
+      </c>
+      <c r="F17" s="5">
+        <v>43489</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="5">
+        <v>43487</v>
+      </c>
+      <c r="F18" s="5">
+        <v>43489</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="5">
+        <v>43487</v>
+      </c>
+      <c r="F19" s="5">
+        <v>43489</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="5">
+        <v>43488</v>
+      </c>
+      <c r="F20" s="5">
         <v>43490</v>
       </c>
-      <c r="G9" s="12">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
+      <c r="G20" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="5">
+        <v>43488</v>
+      </c>
+      <c r="F21" s="5">
+        <v>43490</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="8">
-        <v>43483</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="D22" s="2"/>
+      <c r="E22" s="5">
         <v>43490</v>
       </c>
-      <c r="G10" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
+      <c r="F22" s="5">
+        <v>43490</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="8">
-        <v>43483</v>
-      </c>
-      <c r="F11" s="8">
+      <c r="D23" s="2"/>
+      <c r="E23" s="5">
+        <v>43489</v>
+      </c>
+      <c r="F23" s="5">
         <v>43490</v>
       </c>
-      <c r="G11" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="8">
-        <v>43483</v>
-      </c>
-      <c r="F12" s="8">
+      <c r="D24" s="2"/>
+      <c r="E24" s="5">
         <v>43490</v>
       </c>
-      <c r="G12" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="8">
-        <v>43483</v>
-      </c>
-      <c r="F13" s="8">
+      <c r="F24" s="5">
         <v>43490</v>
       </c>
-      <c r="G13" s="12">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="8">
-        <v>43485</v>
-      </c>
-      <c r="F14" s="8">
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="5">
         <v>43490</v>
       </c>
-      <c r="G14" s="12">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="8">
-        <v>43485</v>
-      </c>
-      <c r="F15" s="8">
-        <v>43488</v>
-      </c>
-      <c r="G15" s="12">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
+      <c r="F25" s="5">
+        <v>43491</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="8">
-        <v>43485</v>
-      </c>
-      <c r="F16" s="8">
-        <v>43488</v>
-      </c>
-      <c r="G16" s="12">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
+      <c r="D26" s="2"/>
+      <c r="E26" s="5">
+        <v>43490</v>
+      </c>
+      <c r="F26" s="5">
+        <v>43491</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="8">
-        <v>43485</v>
-      </c>
-      <c r="F17" s="8">
-        <v>43488</v>
-      </c>
-      <c r="G17" s="12">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
+      <c r="D27" s="2"/>
+      <c r="E27" s="5">
+        <v>43490</v>
+      </c>
+      <c r="F27" s="5">
+        <v>43491</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="8">
-        <v>43485</v>
-      </c>
-      <c r="F18" s="8">
-        <v>43488</v>
-      </c>
-      <c r="G18" s="12">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
+      <c r="D28" s="2"/>
+      <c r="E28" s="5">
+        <v>43490</v>
+      </c>
+      <c r="F28" s="5">
+        <v>43491</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0</v>
+      </c>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="8">
-        <v>43485</v>
-      </c>
-      <c r="F19" s="8">
-        <v>43488</v>
-      </c>
-      <c r="G19" s="12">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="8">
-        <v>43485</v>
-      </c>
-      <c r="F20" s="8">
+      <c r="D29" s="2"/>
+      <c r="E29" s="5">
         <v>43490</v>
       </c>
-      <c r="G20" s="12">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4" t="s">
+      <c r="F29" s="5">
+        <v>43491</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="5">
+        <v>43491</v>
+      </c>
+      <c r="F30" s="5">
+        <v>43499</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0</v>
+      </c>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="8">
-        <v>43485</v>
-      </c>
-      <c r="F21" s="8">
-        <v>43490</v>
-      </c>
-      <c r="G21" s="12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4" t="s">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="5">
+        <v>43491</v>
+      </c>
+      <c r="F31" s="5">
+        <v>43492</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0</v>
+      </c>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="8">
-        <v>43488</v>
-      </c>
-      <c r="F22" s="8">
-        <v>43490</v>
-      </c>
-      <c r="G22" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4" t="s">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="5">
+        <v>43493</v>
+      </c>
+      <c r="F32" s="5">
+        <v>43496</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0</v>
+      </c>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="8">
-        <v>43485</v>
-      </c>
-      <c r="F23" s="8">
-        <v>43490</v>
-      </c>
-      <c r="G23" s="12">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4" t="s">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="5">
+        <v>43497</v>
+      </c>
+      <c r="F33" s="5">
+        <v>43499</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0</v>
+      </c>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="8">
-        <v>43488</v>
-      </c>
-      <c r="F24" s="8">
-        <v>43490</v>
-      </c>
-      <c r="G24" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="8">
-        <v>43488</v>
-      </c>
-      <c r="F25" s="8">
-        <v>43490</v>
-      </c>
-      <c r="G25" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4" t="s">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="5">
+        <v>43492</v>
+      </c>
+      <c r="F34" s="5">
+        <v>43492</v>
+      </c>
+      <c r="G34" s="9">
+        <v>0</v>
+      </c>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="5">
+        <v>43498</v>
+      </c>
+      <c r="F35" s="5">
+        <v>43499</v>
+      </c>
+      <c r="G35" s="9">
+        <v>0</v>
+      </c>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="5">
+        <v>43500</v>
+      </c>
+      <c r="F36" s="5">
+        <v>43512</v>
+      </c>
+      <c r="G36" s="9">
+        <v>0</v>
+      </c>
+      <c r="H36" s="13"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="8">
-        <v>43488</v>
-      </c>
-      <c r="F26" s="8">
-        <v>43490</v>
-      </c>
-      <c r="G26" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4" t="s">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="5">
+        <v>43500</v>
+      </c>
+      <c r="F37" s="5">
+        <v>43504</v>
+      </c>
+      <c r="G37" s="9">
+        <v>0</v>
+      </c>
+      <c r="H37" s="13"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="8">
-        <v>43488</v>
-      </c>
-      <c r="F27" s="8">
-        <v>43490</v>
-      </c>
-      <c r="G27" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4" t="s">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="5">
+        <v>43500</v>
+      </c>
+      <c r="F38" s="5">
+        <v>43505</v>
+      </c>
+      <c r="G38" s="9">
+        <v>0</v>
+      </c>
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="8">
-        <v>43488</v>
-      </c>
-      <c r="F28" s="8">
-        <v>43490</v>
-      </c>
-      <c r="G28" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4" t="s">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="5">
+        <v>43507</v>
+      </c>
+      <c r="F39" s="5">
+        <v>43512</v>
+      </c>
+      <c r="G39" s="9">
+        <v>0</v>
+      </c>
+      <c r="H39" s="13"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="8">
-        <v>43488</v>
-      </c>
-      <c r="F29" s="8">
-        <v>43490</v>
-      </c>
-      <c r="G29" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="8">
-        <v>43491</v>
-      </c>
-      <c r="F30" s="8">
-        <v>43499</v>
-      </c>
-      <c r="G30" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="8">
-        <v>43491</v>
-      </c>
-      <c r="F31" s="8">
-        <v>43496</v>
-      </c>
-      <c r="G31" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="8">
-        <v>43491</v>
-      </c>
-      <c r="F32" s="8">
-        <v>43496</v>
-      </c>
-      <c r="G32" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="8">
-        <v>43491</v>
-      </c>
-      <c r="F33" s="8">
-        <v>43496</v>
-      </c>
-      <c r="G33" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="8">
-        <v>43491</v>
-      </c>
-      <c r="F34" s="8">
-        <v>43496</v>
-      </c>
-      <c r="G34" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="8">
-        <v>43497</v>
-      </c>
-      <c r="F35" s="8">
-        <v>43499</v>
-      </c>
-      <c r="G35" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="8">
-        <v>43500</v>
-      </c>
-      <c r="F36" s="8">
-        <v>43512</v>
-      </c>
-      <c r="G36" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="3"/>
-      <c r="B37" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="8">
-        <v>43500</v>
-      </c>
-      <c r="F37" s="8">
-        <v>43505</v>
-      </c>
-      <c r="G37" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="8">
-        <v>43500</v>
-      </c>
-      <c r="F38" s="8">
-        <v>43505</v>
-      </c>
-      <c r="G38" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" s="3"/>
-      <c r="B39" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="8">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="5">
         <v>43506</v>
       </c>
-      <c r="F39" s="8">
-        <v>43512</v>
-      </c>
-      <c r="G39" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" s="3"/>
-      <c r="B40" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="8">
+      <c r="F40" s="5">
         <v>43506</v>
       </c>
-      <c r="F40" s="8">
-        <v>43512</v>
-      </c>
-      <c r="G40" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" s="3" t="s">
+      <c r="G40" s="9">
+        <v>0</v>
+      </c>
+      <c r="H40" s="13"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="8">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="5">
         <v>43513</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="5">
         <v>43523</v>
       </c>
-      <c r="G41" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4" t="s">
+      <c r="G41" s="9">
+        <v>0</v>
+      </c>
+      <c r="H41" s="13"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="8">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="5">
         <v>43513</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="5">
         <v>43518</v>
       </c>
-      <c r="G42" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="5"/>
-      <c r="B43" s="6" t="s">
+      <c r="G42" s="9">
+        <v>0</v>
+      </c>
+      <c r="H42" s="13"/>
+    </row>
+    <row r="43" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="3"/>
+      <c r="B43" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="11">
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="8">
         <v>43519</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="8">
         <v>43523</v>
       </c>
-      <c r="G43" s="13">
-        <v>0</v>
-      </c>
+      <c r="G43" s="10">
+        <v>0</v>
+      </c>
+      <c r="H43" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/docs/スケジュール/ポーカー改修スケジュール.xlsx
+++ b/docs/スケジュール/ポーカー改修スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDE2700-345B-4203-A2D8-7B256F571CFB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53190F3E-0949-4F22-9273-4D0E7AB0588C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="7764" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
   <si>
     <t>タスク</t>
     <phoneticPr fontId="1"/>
@@ -326,6 +326,13 @@
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提出は26日の13時までに致します。</t>
+    <rPh sb="13" eb="14">
+      <t>イタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -891,14 +898,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1353E68-709A-4869-9FB5-3F7A241FCBD2}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.69921875" customWidth="1"/>
     <col min="2" max="2" width="4.8984375" customWidth="1"/>
     <col min="5" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.796875" customWidth="1"/>
+    <col min="8" max="8" width="32.796875" customWidth="1"/>
     <col min="9" max="9" width="35.69921875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -939,7 +948,7 @@
         <v>43490</v>
       </c>
       <c r="G2" s="9">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" t="s">
@@ -960,7 +969,7 @@
         <v>43489</v>
       </c>
       <c r="G3" s="9">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" t="s">
@@ -981,7 +990,7 @@
         <v>43489</v>
       </c>
       <c r="G4" s="9">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" t="s">
@@ -1002,7 +1011,7 @@
         <v>43489</v>
       </c>
       <c r="G5" s="9">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" t="s">
@@ -1023,7 +1032,7 @@
         <v>43489</v>
       </c>
       <c r="G6" s="9">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" t="s">
@@ -1044,7 +1053,7 @@
         <v>43489</v>
       </c>
       <c r="G7" s="9">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" t="s">
@@ -1065,7 +1074,7 @@
         <v>43489</v>
       </c>
       <c r="G8" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H8" s="13"/>
     </row>
@@ -1125,7 +1134,7 @@
         <v>43489</v>
       </c>
       <c r="G11" s="9">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="11" t="s">
@@ -1146,7 +1155,7 @@
         <v>43489</v>
       </c>
       <c r="G12" s="9">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H12" s="13"/>
     </row>
@@ -1164,7 +1173,7 @@
         <v>43490</v>
       </c>
       <c r="G13" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H13" s="13"/>
     </row>
@@ -1308,7 +1317,7 @@
         <v>43490</v>
       </c>
       <c r="G21" s="9">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H21" s="13"/>
     </row>
@@ -1344,7 +1353,7 @@
         <v>43490</v>
       </c>
       <c r="G23" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H23" s="13"/>
     </row>
@@ -1400,7 +1409,9 @@
       <c r="G26" s="9">
         <v>0</v>
       </c>
-      <c r="H26" s="13"/>
+      <c r="H26" s="13" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
@@ -1418,7 +1429,9 @@
       <c r="G27" s="9">
         <v>0</v>
       </c>
-      <c r="H27" s="13"/>
+      <c r="H27" s="13" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
@@ -1436,7 +1449,9 @@
       <c r="G28" s="9">
         <v>0</v>
       </c>
-      <c r="H28" s="13"/>
+      <c r="H28" s="13" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
@@ -1454,7 +1469,9 @@
       <c r="G29" s="9">
         <v>0</v>
       </c>
-      <c r="H29" s="13"/>
+      <c r="H29" s="13" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">

--- a/docs/スケジュール/ポーカー改修スケジュール.xlsx
+++ b/docs/スケジュール/ポーカー改修スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53190F3E-0949-4F22-9273-4D0E7AB0588C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F819E4-7EEF-4B3B-8B63-83515B1B943B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="7764" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
@@ -898,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1353E68-709A-4869-9FB5-3F7A241FCBD2}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1227,7 +1227,7 @@
         <v>43489</v>
       </c>
       <c r="G16" s="9">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H16" s="13"/>
     </row>

--- a/docs/スケジュール/ポーカー改修スケジュール.xlsx
+++ b/docs/スケジュール/ポーカー改修スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F819E4-7EEF-4B3B-8B63-83515B1B943B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DA3595-010E-4F4D-A30D-C4B959614659}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="7764" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>タスク</t>
     <phoneticPr fontId="1"/>
@@ -333,6 +333,27 @@
     <t>提出は26日の13時までに致します。</t>
     <rPh sb="13" eb="14">
       <t>イタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン(ポップアップ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「0円ではポーカーできない問題」の対応
+として追加しました。</t>
+    <rPh sb="2" eb="3">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -524,7 +545,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -581,6 +602,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -896,18 +920,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1353E68-709A-4869-9FB5-3F7A241FCBD2}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.69921875" customWidth="1"/>
     <col min="2" max="2" width="4.8984375" customWidth="1"/>
+    <col min="3" max="3" width="22.69921875" customWidth="1"/>
     <col min="5" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.796875" customWidth="1"/>
+    <col min="8" max="8" width="39.19921875" customWidth="1"/>
     <col min="9" max="9" width="35.69921875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1159,66 +1184,68 @@
       </c>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="5">
         <v>43490</v>
       </c>
       <c r="F13" s="5">
-        <v>43490</v>
+        <v>43491</v>
       </c>
       <c r="G13" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="H13" s="13"/>
+        <v>0.7</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="2"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="5">
-        <v>43487</v>
+        <v>43490</v>
       </c>
       <c r="F14" s="5">
-        <v>43491</v>
+        <v>43490</v>
       </c>
       <c r="G14" s="9">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="5">
         <v>43487</v>
       </c>
       <c r="F15" s="5">
-        <v>43489</v>
+        <v>43491</v>
       </c>
       <c r="G15" s="9">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="5">
         <v>43487</v>
@@ -1227,7 +1254,7 @@
         <v>43489</v>
       </c>
       <c r="G16" s="9">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H16" s="13"/>
     </row>
@@ -1235,7 +1262,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="5">
@@ -1245,7 +1272,7 @@
         <v>43489</v>
       </c>
       <c r="G17" s="9">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H17" s="13"/>
     </row>
@@ -1253,7 +1280,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="5">
@@ -1271,7 +1298,7 @@
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="5">
@@ -1287,28 +1314,28 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
-      <c r="B20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="5">
-        <v>43488</v>
+        <v>43487</v>
       </c>
       <c r="F20" s="5">
-        <v>43490</v>
+        <v>43489</v>
       </c>
       <c r="G20" s="9">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="5">
         <v>43488</v>
@@ -1317,7 +1344,7 @@
         <v>43490</v>
       </c>
       <c r="G21" s="9">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H21" s="13"/>
     </row>
@@ -1325,17 +1352,17 @@
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="5">
-        <v>43490</v>
+        <v>43488</v>
       </c>
       <c r="F22" s="5">
         <v>43490</v>
       </c>
       <c r="G22" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H22" s="13"/>
     </row>
@@ -1343,11 +1370,11 @@
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="5">
-        <v>43489</v>
+        <v>43490</v>
       </c>
       <c r="F23" s="5">
         <v>43490</v>
@@ -1361,44 +1388,44 @@
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="5">
-        <v>43490</v>
+        <v>43489</v>
       </c>
       <c r="F24" s="5">
         <v>43490</v>
       </c>
       <c r="G24" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
-      <c r="B25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="5">
         <v>43490</v>
       </c>
       <c r="F25" s="5">
-        <v>43491</v>
+        <v>43490</v>
       </c>
       <c r="G25" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="5">
         <v>43490</v>
@@ -1409,15 +1436,13 @@
       <c r="G26" s="9">
         <v>0</v>
       </c>
-      <c r="H26" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="5">
@@ -1437,7 +1462,7 @@
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="5">
@@ -1457,7 +1482,7 @@
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="5">
@@ -1474,35 +1499,37 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A30" s="1"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D30" s="2"/>
       <c r="E30" s="5">
+        <v>43490</v>
+      </c>
+      <c r="F30" s="5">
         <v>43491</v>
       </c>
-      <c r="F30" s="5">
-        <v>43499</v>
-      </c>
       <c r="G30" s="9">
         <v>0</v>
       </c>
-      <c r="H30" s="13"/>
+      <c r="H30" s="13" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="5">
         <v>43491</v>
       </c>
       <c r="F31" s="5">
-        <v>43492</v>
+        <v>43499</v>
       </c>
       <c r="G31" s="9">
         <v>0</v>
@@ -1512,15 +1539,15 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="5">
-        <v>43493</v>
+        <v>43491</v>
       </c>
       <c r="F32" s="5">
-        <v>43496</v>
+        <v>43492</v>
       </c>
       <c r="G32" s="9">
         <v>0</v>
@@ -1530,15 +1557,15 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="5">
-        <v>43497</v>
+        <v>43493</v>
       </c>
       <c r="F33" s="5">
-        <v>43499</v>
+        <v>43496</v>
       </c>
       <c r="G33" s="9">
         <v>0</v>
@@ -1548,15 +1575,15 @@
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="5">
-        <v>43492</v>
+        <v>43497</v>
       </c>
       <c r="F34" s="5">
-        <v>43492</v>
+        <v>43499</v>
       </c>
       <c r="G34" s="9">
         <v>0</v>
@@ -1566,15 +1593,15 @@
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
       <c r="B35" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="5">
-        <v>43498</v>
+        <v>43492</v>
       </c>
       <c r="F35" s="5">
-        <v>43499</v>
+        <v>43492</v>
       </c>
       <c r="G35" s="9">
         <v>0</v>
@@ -1582,17 +1609,17 @@
       <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="2"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="5">
-        <v>43500</v>
+        <v>43498</v>
       </c>
       <c r="F36" s="5">
-        <v>43512</v>
+        <v>43499</v>
       </c>
       <c r="G36" s="9">
         <v>0</v>
@@ -1600,17 +1627,17 @@
       <c r="H36" s="13"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="1"/>
-      <c r="B37" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="5">
         <v>43500</v>
       </c>
       <c r="F37" s="5">
-        <v>43504</v>
+        <v>43512</v>
       </c>
       <c r="G37" s="9">
         <v>0</v>
@@ -1620,7 +1647,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
       <c r="B38" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1628,7 +1655,7 @@
         <v>43500</v>
       </c>
       <c r="F38" s="5">
-        <v>43505</v>
+        <v>43504</v>
       </c>
       <c r="G38" s="9">
         <v>0</v>
@@ -1638,15 +1665,15 @@
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
       <c r="B39" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="5">
-        <v>43507</v>
+        <v>43500</v>
       </c>
       <c r="F39" s="5">
-        <v>43512</v>
+        <v>43505</v>
       </c>
       <c r="G39" s="9">
         <v>0</v>
@@ -1656,15 +1683,15 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
       <c r="B40" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="5">
-        <v>43506</v>
+        <v>43507</v>
       </c>
       <c r="F40" s="5">
-        <v>43506</v>
+        <v>43512</v>
       </c>
       <c r="G40" s="9">
         <v>0</v>
@@ -1672,17 +1699,17 @@
       <c r="H40" s="13"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="2"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <v>43513</v>
+        <v>43506</v>
       </c>
       <c r="F41" s="5">
-        <v>43523</v>
+        <v>43506</v>
       </c>
       <c r="G41" s="9">
         <v>0</v>
@@ -1690,40 +1717,58 @@
       <c r="H41" s="13"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" s="1"/>
-      <c r="B42" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
         <v>43513</v>
       </c>
       <c r="F42" s="5">
+        <v>43523</v>
+      </c>
+      <c r="G42" s="9">
+        <v>0</v>
+      </c>
+      <c r="H42" s="13"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="5">
+        <v>43513</v>
+      </c>
+      <c r="F43" s="5">
         <v>43518</v>
       </c>
-      <c r="G42" s="9">
-        <v>0</v>
-      </c>
-      <c r="H42" s="13"/>
-    </row>
-    <row r="43" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="3"/>
-      <c r="B43" s="4" t="s">
+      <c r="G43" s="9">
+        <v>0</v>
+      </c>
+      <c r="H43" s="13"/>
+    </row>
+    <row r="44" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="3"/>
+      <c r="B44" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="8">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="8">
         <v>43519</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F44" s="8">
         <v>43523</v>
       </c>
-      <c r="G43" s="10">
-        <v>0</v>
-      </c>
-      <c r="H43" s="14"/>
+      <c r="G44" s="10">
+        <v>0</v>
+      </c>
+      <c r="H44" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/docs/スケジュール/ポーカー改修スケジュール.xlsx
+++ b/docs/スケジュール/ポーカー改修スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DA3595-010E-4F4D-A30D-C4B959614659}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E469A32C-23FC-4B22-BC5C-5D85ECDF7753}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="7764" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
@@ -923,7 +923,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1434,7 +1434,7 @@
         <v>43491</v>
       </c>
       <c r="G26" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H26" s="13"/>
     </row>
@@ -1452,7 +1452,7 @@
         <v>43491</v>
       </c>
       <c r="G27" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H27" s="13" t="s">
         <v>33</v>
@@ -1472,7 +1472,7 @@
         <v>43491</v>
       </c>
       <c r="G28" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H28" s="13" t="s">
         <v>33</v>
@@ -1492,7 +1492,7 @@
         <v>43491</v>
       </c>
       <c r="G29" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H29" s="13" t="s">
         <v>33</v>
@@ -1512,7 +1512,7 @@
         <v>43491</v>
       </c>
       <c r="G30" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H30" s="13" t="s">
         <v>33</v>

--- a/docs/スケジュール/ポーカー改修スケジュール.xlsx
+++ b/docs/スケジュール/ポーカー改修スケジュール.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E469A32C-23FC-4B22-BC5C-5D85ECDF7753}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA8C3AA-5589-4E8A-974B-54B6F826A35D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="7764" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="7764" activeTab="1" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
   <sheets>
-    <sheet name="スケジュール" sheetId="1" r:id="rId1"/>
+    <sheet name="元々のスケジュール " sheetId="2" r:id="rId1"/>
+    <sheet name="リスケ後スケジュール" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="39">
   <si>
     <t>タスク</t>
     <phoneticPr fontId="1"/>
@@ -354,6 +355,48 @@
     </rPh>
     <rPh sb="23" eb="25">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面側単体テスト</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Junitテストの一覧は2月9日に提出します。</t>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>テイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストケースは2月14日に提出します。</t>
+    <rPh sb="8" eb="9">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テイシュツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -919,11 +962,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1353E68-709A-4869-9FB5-3F7A241FCBD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDC7E2F-D109-46AD-B52B-D6BBA8DA626E}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1015,7 +1058,7 @@
         <v>43489</v>
       </c>
       <c r="G4" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" t="s">
@@ -1057,7 +1100,7 @@
         <v>43489</v>
       </c>
       <c r="G6" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" t="s">
@@ -1078,7 +1121,7 @@
         <v>43489</v>
       </c>
       <c r="G7" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" t="s">
@@ -1198,7 +1241,7 @@
         <v>43491</v>
       </c>
       <c r="G13" s="9">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>35</v>
@@ -1769,6 +1812,887 @@
         <v>0</v>
       </c>
       <c r="H44" s="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1353E68-709A-4869-9FB5-3F7A241FCBD2}">
+  <dimension ref="A1:I45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.69921875" customWidth="1"/>
+    <col min="2" max="2" width="4.8984375" customWidth="1"/>
+    <col min="3" max="3" width="22.69921875" customWidth="1"/>
+    <col min="5" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.19921875" customWidth="1"/>
+    <col min="9" max="9" width="35.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="5">
+        <v>43487</v>
+      </c>
+      <c r="F2" s="5">
+        <v>43490</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="5">
+        <v>43487</v>
+      </c>
+      <c r="F3" s="5">
+        <v>43489</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="5">
+        <v>43487</v>
+      </c>
+      <c r="F4" s="5">
+        <v>43489</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="5">
+        <v>43487</v>
+      </c>
+      <c r="F5" s="5">
+        <v>43489</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="5">
+        <v>43487</v>
+      </c>
+      <c r="F6" s="5">
+        <v>43489</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="5">
+        <v>43487</v>
+      </c>
+      <c r="F7" s="5">
+        <v>43489</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="5">
+        <v>43488</v>
+      </c>
+      <c r="F8" s="5">
+        <v>43489</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1</v>
+      </c>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="5">
+        <v>43488</v>
+      </c>
+      <c r="F9" s="5">
+        <v>43488</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="5">
+        <v>43488</v>
+      </c>
+      <c r="F10" s="5">
+        <v>43488</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="5">
+        <v>43488</v>
+      </c>
+      <c r="F11" s="5">
+        <v>43489</v>
+      </c>
+      <c r="G11" s="9">
+        <v>1</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="5">
+        <v>43488</v>
+      </c>
+      <c r="F12" s="5">
+        <v>43489</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="5">
+        <v>43490</v>
+      </c>
+      <c r="F13" s="5">
+        <v>43491</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="5">
+        <v>43490</v>
+      </c>
+      <c r="F14" s="5">
+        <v>43490</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="5">
+        <v>43487</v>
+      </c>
+      <c r="F15" s="5">
+        <v>43491</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="5">
+        <v>43487</v>
+      </c>
+      <c r="F16" s="5">
+        <v>43489</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="5">
+        <v>43487</v>
+      </c>
+      <c r="F17" s="5">
+        <v>43489</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="5">
+        <v>43487</v>
+      </c>
+      <c r="F18" s="5">
+        <v>43489</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="5">
+        <v>43487</v>
+      </c>
+      <c r="F19" s="5">
+        <v>43489</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="5">
+        <v>43487</v>
+      </c>
+      <c r="F20" s="5">
+        <v>43489</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="5">
+        <v>43488</v>
+      </c>
+      <c r="F21" s="5">
+        <v>43490</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="5">
+        <v>43488</v>
+      </c>
+      <c r="F22" s="5">
+        <v>43490</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="5">
+        <v>43490</v>
+      </c>
+      <c r="F23" s="5">
+        <v>43490</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="5">
+        <v>43489</v>
+      </c>
+      <c r="F24" s="5">
+        <v>43490</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="5">
+        <v>43490</v>
+      </c>
+      <c r="F25" s="5">
+        <v>43490</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="5">
+        <v>43490</v>
+      </c>
+      <c r="F26" s="5">
+        <v>43491</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="5">
+        <v>43490</v>
+      </c>
+      <c r="F27" s="5">
+        <v>43491</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="5">
+        <v>43490</v>
+      </c>
+      <c r="F28" s="5">
+        <v>43491</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="5">
+        <v>43490</v>
+      </c>
+      <c r="F29" s="5">
+        <v>43491</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="5">
+        <v>43490</v>
+      </c>
+      <c r="F30" s="5">
+        <v>43491</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="5">
+        <v>43491</v>
+      </c>
+      <c r="F31" s="5">
+        <v>43507</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0</v>
+      </c>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="5">
+        <v>43491</v>
+      </c>
+      <c r="F32" s="5">
+        <v>43492</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="5">
+        <v>43492</v>
+      </c>
+      <c r="F33" s="5">
+        <v>43492</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="5">
+        <v>43493</v>
+      </c>
+      <c r="F34" s="5">
+        <v>43505</v>
+      </c>
+      <c r="G34" s="9">
+        <v>0</v>
+      </c>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="5">
+        <v>43505</v>
+      </c>
+      <c r="F35" s="5">
+        <v>43506</v>
+      </c>
+      <c r="G35" s="9">
+        <v>0</v>
+      </c>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="5">
+        <v>43505</v>
+      </c>
+      <c r="F36" s="5">
+        <v>43507</v>
+      </c>
+      <c r="G36" s="9">
+        <v>0</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="5">
+        <v>43505</v>
+      </c>
+      <c r="F37" s="5">
+        <v>43513</v>
+      </c>
+      <c r="G37" s="9">
+        <v>0</v>
+      </c>
+      <c r="H37" s="13"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="5">
+        <v>43505</v>
+      </c>
+      <c r="F38" s="5">
+        <v>43508</v>
+      </c>
+      <c r="G38" s="9">
+        <v>0</v>
+      </c>
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="5">
+        <v>43509</v>
+      </c>
+      <c r="F39" s="5">
+        <v>43511</v>
+      </c>
+      <c r="G39" s="9">
+        <v>0</v>
+      </c>
+      <c r="H39" s="13"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="5">
+        <v>43511</v>
+      </c>
+      <c r="F40" s="5">
+        <v>43512</v>
+      </c>
+      <c r="G40" s="9">
+        <v>0</v>
+      </c>
+      <c r="H40" s="13"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="5">
+        <v>43512</v>
+      </c>
+      <c r="F41" s="5">
+        <v>43512</v>
+      </c>
+      <c r="G41" s="9">
+        <v>0</v>
+      </c>
+      <c r="H41" s="13"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="5">
+        <v>43512</v>
+      </c>
+      <c r="F42" s="5">
+        <v>43513</v>
+      </c>
+      <c r="G42" s="9">
+        <v>0</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="5">
+        <v>43514</v>
+      </c>
+      <c r="F43" s="5">
+        <v>43524</v>
+      </c>
+      <c r="G43" s="9">
+        <v>0</v>
+      </c>
+      <c r="H43" s="13"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="5">
+        <v>43514</v>
+      </c>
+      <c r="F44" s="5">
+        <v>43518</v>
+      </c>
+      <c r="G44" s="9">
+        <v>0</v>
+      </c>
+      <c r="H44" s="13"/>
+    </row>
+    <row r="45" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A45" s="3"/>
+      <c r="B45" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="8">
+        <v>43519</v>
+      </c>
+      <c r="F45" s="8">
+        <v>43524</v>
+      </c>
+      <c r="G45" s="10">
+        <v>0</v>
+      </c>
+      <c r="H45" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/docs/スケジュール/ポーカー改修スケジュール.xlsx
+++ b/docs/スケジュール/ポーカー改修スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA8C3AA-5589-4E8A-974B-54B6F826A35D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BDB2F4-F7B0-44BD-93A8-BEE943790EEB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="7764" activeTab="1" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="39">
   <si>
     <t>タスク</t>
     <phoneticPr fontId="1"/>
@@ -405,7 +405,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,8 +424,24 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -435,8 +454,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -582,13 +613,241 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -649,9 +908,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="55" fontId="2" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="2" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="2" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{9C9F3D17-6A78-44EA-A049-93CF18C62238}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -965,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDC7E2F-D109-46AD-B52B-D6BBA8DA626E}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1822,10 +2151,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1353E68-709A-4869-9FB5-3F7A241FCBD2}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:BP47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1835,80 +2164,301 @@
     <col min="3" max="3" width="22.69921875" customWidth="1"/>
     <col min="5" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="39.19921875" customWidth="1"/>
-    <col min="9" max="9" width="35.69921875" customWidth="1"/>
+    <col min="9" max="67" width="3.296875" customWidth="1"/>
+    <col min="68" max="68" width="31.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:67" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I1" s="20">
+        <v>43466</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="23">
+        <v>43497</v>
+      </c>
+      <c r="AO1" s="24"/>
+      <c r="AP1" s="24"/>
+      <c r="AQ1" s="24"/>
+      <c r="AR1" s="24"/>
+      <c r="AS1" s="24"/>
+      <c r="AT1" s="24"/>
+      <c r="AU1" s="24"/>
+      <c r="AV1" s="24"/>
+      <c r="AW1" s="24"/>
+      <c r="AX1" s="24"/>
+      <c r="AY1" s="24"/>
+      <c r="AZ1" s="24"/>
+      <c r="BA1" s="24"/>
+      <c r="BB1" s="24"/>
+      <c r="BC1" s="24"/>
+      <c r="BD1" s="24"/>
+      <c r="BE1" s="24"/>
+      <c r="BF1" s="24"/>
+      <c r="BG1" s="24"/>
+      <c r="BH1" s="24"/>
+      <c r="BI1" s="24"/>
+      <c r="BJ1" s="24"/>
+      <c r="BK1" s="24"/>
+      <c r="BL1" s="24"/>
+      <c r="BM1" s="24"/>
+      <c r="BN1" s="24"/>
+      <c r="BO1" s="25"/>
+    </row>
+    <row r="2" spans="1:67" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="15" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I2" s="26">
+        <v>1</v>
+      </c>
+      <c r="J2" s="27">
+        <v>2</v>
+      </c>
+      <c r="K2" s="27">
+        <v>3</v>
+      </c>
+      <c r="L2" s="27">
+        <v>4</v>
+      </c>
+      <c r="M2" s="27">
+        <v>5</v>
+      </c>
+      <c r="N2" s="27">
+        <v>6</v>
+      </c>
+      <c r="O2" s="27">
+        <v>7</v>
+      </c>
+      <c r="P2" s="27">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="27">
+        <v>9</v>
+      </c>
+      <c r="R2" s="27">
+        <v>10</v>
+      </c>
+      <c r="S2" s="27">
+        <v>11</v>
+      </c>
+      <c r="T2" s="27">
+        <v>12</v>
+      </c>
+      <c r="U2" s="27">
+        <v>13</v>
+      </c>
+      <c r="V2" s="27">
+        <v>14</v>
+      </c>
+      <c r="W2" s="27">
+        <v>15</v>
+      </c>
+      <c r="X2" s="27">
+        <v>16</v>
+      </c>
+      <c r="Y2" s="27">
+        <v>17</v>
+      </c>
+      <c r="Z2" s="27">
+        <v>18</v>
+      </c>
+      <c r="AA2" s="27">
+        <v>19</v>
+      </c>
+      <c r="AB2" s="27">
+        <v>20</v>
+      </c>
+      <c r="AC2" s="27">
+        <v>21</v>
+      </c>
+      <c r="AD2" s="27">
+        <v>22</v>
+      </c>
+      <c r="AE2" s="27">
+        <v>23</v>
+      </c>
+      <c r="AF2" s="27">
+        <v>24</v>
+      </c>
+      <c r="AG2" s="27">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="5">
-        <v>43487</v>
-      </c>
-      <c r="F2" s="5">
-        <v>43490</v>
-      </c>
-      <c r="G2" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="I2" t="s">
+      <c r="AH2" s="27">
+        <v>26</v>
+      </c>
+      <c r="AI2" s="27">
+        <v>27</v>
+      </c>
+      <c r="AJ2" s="27">
+        <v>28</v>
+      </c>
+      <c r="AK2" s="27">
+        <v>29</v>
+      </c>
+      <c r="AL2" s="27">
+        <v>30</v>
+      </c>
+      <c r="AM2" s="27">
+        <v>31</v>
+      </c>
+      <c r="AN2" s="27">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="27">
+        <v>2</v>
+      </c>
+      <c r="AP2" s="27">
+        <v>3</v>
+      </c>
+      <c r="AQ2" s="27">
+        <v>4</v>
+      </c>
+      <c r="AR2" s="27">
+        <v>5</v>
+      </c>
+      <c r="AS2" s="27">
+        <v>6</v>
+      </c>
+      <c r="AT2" s="27">
+        <v>7</v>
+      </c>
+      <c r="AU2" s="27">
+        <v>8</v>
+      </c>
+      <c r="AV2" s="27">
+        <v>9</v>
+      </c>
+      <c r="AW2" s="27">
+        <v>10</v>
+      </c>
+      <c r="AX2" s="27">
+        <v>11</v>
+      </c>
+      <c r="AY2" s="27">
+        <v>12</v>
+      </c>
+      <c r="AZ2" s="27">
+        <v>13</v>
+      </c>
+      <c r="BA2" s="27">
+        <v>14</v>
+      </c>
+      <c r="BB2" s="27">
+        <v>15</v>
+      </c>
+      <c r="BC2" s="27">
+        <v>16</v>
+      </c>
+      <c r="BD2" s="27">
+        <v>17</v>
+      </c>
+      <c r="BE2" s="27">
+        <v>18</v>
+      </c>
+      <c r="BF2" s="27">
+        <v>19</v>
+      </c>
+      <c r="BG2" s="27">
+        <v>20</v>
+      </c>
+      <c r="BH2" s="27">
+        <v>21</v>
+      </c>
+      <c r="BI2" s="27">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="BJ2" s="27">
+        <v>23</v>
+      </c>
+      <c r="BK2" s="27">
+        <v>24</v>
+      </c>
+      <c r="BL2" s="27">
+        <v>25</v>
+      </c>
+      <c r="BM2" s="27">
+        <v>26</v>
+      </c>
+      <c r="BN2" s="27">
+        <v>27</v>
+      </c>
+      <c r="BO2" s="27">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="5">
         <v>43487</v>
       </c>
       <c r="F3" s="5">
-        <v>43489</v>
+        <v>43490</v>
       </c>
       <c r="G3" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="H3" s="13"/>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="34"/>
+      <c r="BO3" s="28"/>
+    </row>
+    <row r="4" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="5">
         <v>43487</v>
@@ -1920,15 +2470,16 @@
         <v>1</v>
       </c>
       <c r="H4" s="13"/>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="42"/>
+      <c r="BO4" s="29"/>
+    </row>
+    <row r="5" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="5">
@@ -1938,18 +2489,19 @@
         <v>43489</v>
       </c>
       <c r="G5" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H5" s="13"/>
-      <c r="I5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="34"/>
+      <c r="BO5" s="29"/>
+    </row>
+    <row r="6" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="5">
@@ -1962,15 +2514,16 @@
         <v>1</v>
       </c>
       <c r="H6" s="13"/>
-      <c r="I6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="34"/>
+      <c r="BO6" s="29"/>
+    </row>
+    <row r="7" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="5">
@@ -1983,19 +2536,20 @@
         <v>1</v>
       </c>
       <c r="H7" s="13"/>
-      <c r="I7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="AD7" s="32"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="34"/>
+      <c r="BO7" s="29"/>
+    </row>
+    <row r="8" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="5">
-        <v>43488</v>
+        <v>43487</v>
       </c>
       <c r="F8" s="5">
         <v>43489</v>
@@ -2004,33 +2558,37 @@
         <v>1</v>
       </c>
       <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="AD8" s="32"/>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="34"/>
+      <c r="BO8" s="29"/>
+    </row>
+    <row r="9" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="5">
         <v>43488</v>
       </c>
       <c r="F9" s="5">
-        <v>43488</v>
+        <v>43489</v>
       </c>
       <c r="G9" s="9">
         <v>1</v>
       </c>
       <c r="H9" s="13"/>
-      <c r="I9" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="AE9" s="32"/>
+      <c r="AF9" s="34"/>
+      <c r="BO9" s="29"/>
+    </row>
+    <row r="10" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="5">
@@ -2043,36 +2601,34 @@
         <v>1</v>
       </c>
       <c r="H10" s="13"/>
-      <c r="I10" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="AE10" s="35"/>
+      <c r="BO10" s="29"/>
+    </row>
+    <row r="11" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="5">
         <v>43488</v>
       </c>
       <c r="F11" s="5">
-        <v>43489</v>
+        <v>43488</v>
       </c>
       <c r="G11" s="9">
         <v>1</v>
       </c>
       <c r="H11" s="13"/>
-      <c r="I11" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="AE11" s="36"/>
+      <c r="BO11" s="29"/>
+    </row>
+    <row r="12" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="5">
@@ -2085,87 +2641,104 @@
         <v>1</v>
       </c>
       <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AE12" s="32"/>
+      <c r="AF12" s="34"/>
+      <c r="BO12" s="29"/>
+    </row>
+    <row r="13" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="11" t="s">
-        <v>34</v>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="5">
-        <v>43490</v>
+        <v>43488</v>
       </c>
       <c r="F13" s="5">
-        <v>43491</v>
+        <v>43489</v>
       </c>
       <c r="G13" s="9">
         <v>1</v>
       </c>
-      <c r="H13" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H13" s="13"/>
+      <c r="AE13" s="32"/>
+      <c r="AF13" s="34"/>
+      <c r="BO13" s="29"/>
+    </row>
+    <row r="14" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="5">
         <v>43490</v>
       </c>
       <c r="F14" s="5">
-        <v>43490</v>
+        <v>43491</v>
       </c>
       <c r="G14" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG14" s="32"/>
+      <c r="AH14" s="34"/>
+      <c r="BO14" s="29"/>
+    </row>
+    <row r="15" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="5">
-        <v>43487</v>
+        <v>43490</v>
       </c>
       <c r="F15" s="5">
-        <v>43491</v>
+        <v>43490</v>
       </c>
       <c r="G15" s="9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="AG15" s="36"/>
+      <c r="BO15" s="29"/>
+    </row>
+    <row r="16" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="5">
         <v>43487</v>
       </c>
       <c r="F16" s="5">
-        <v>43489</v>
+        <v>43491</v>
       </c>
       <c r="G16" s="9">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="AD16" s="32"/>
+      <c r="AE16" s="33"/>
+      <c r="AF16" s="33"/>
+      <c r="AG16" s="33"/>
+      <c r="AH16" s="34"/>
+      <c r="BO16" s="29"/>
+    </row>
+    <row r="17" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="5">
         <v>43487</v>
@@ -2174,15 +2747,19 @@
         <v>43489</v>
       </c>
       <c r="G17" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="AD17" s="32"/>
+      <c r="AE17" s="33"/>
+      <c r="AF17" s="34"/>
+      <c r="BO17" s="29"/>
+    </row>
+    <row r="18" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="5">
@@ -2192,15 +2769,19 @@
         <v>43489</v>
       </c>
       <c r="G18" s="9">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="AD18" s="32"/>
+      <c r="AE18" s="33"/>
+      <c r="AF18" s="34"/>
+      <c r="BO18" s="29"/>
+    </row>
+    <row r="19" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="5">
@@ -2210,15 +2791,19 @@
         <v>43489</v>
       </c>
       <c r="G19" s="9">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="AD19" s="32"/>
+      <c r="AE19" s="33"/>
+      <c r="AF19" s="34"/>
+      <c r="BO19" s="29"/>
+    </row>
+    <row r="20" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="5">
@@ -2228,34 +2813,42 @@
         <v>43489</v>
       </c>
       <c r="G20" s="9">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="AD20" s="32"/>
+      <c r="AE20" s="33"/>
+      <c r="AF20" s="34"/>
+      <c r="BO20" s="29"/>
+    </row>
+    <row r="21" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
-      <c r="B21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="5">
-        <v>43488</v>
+        <v>43487</v>
       </c>
       <c r="F21" s="5">
-        <v>43490</v>
+        <v>43489</v>
       </c>
       <c r="G21" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="AD21" s="32"/>
+      <c r="AE21" s="37"/>
+      <c r="AF21" s="38"/>
+      <c r="BO21" s="29"/>
+    </row>
+    <row r="22" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="5">
         <v>43488</v>
@@ -2264,88 +2857,103 @@
         <v>43490</v>
       </c>
       <c r="G22" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H22" s="13"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="AE22" s="32"/>
+      <c r="AF22" s="33"/>
+      <c r="AG22" s="34"/>
+      <c r="BO22" s="29"/>
+    </row>
+    <row r="23" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="5">
-        <v>43490</v>
+        <v>43488</v>
       </c>
       <c r="F23" s="5">
         <v>43490</v>
       </c>
       <c r="G23" s="9">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="AE23" s="32"/>
+      <c r="AF23" s="33"/>
+      <c r="AG23" s="34"/>
+      <c r="BO23" s="29"/>
+    </row>
+    <row r="24" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="5">
-        <v>43489</v>
+        <v>43490</v>
       </c>
       <c r="F24" s="5">
         <v>43490</v>
       </c>
       <c r="G24" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H24" s="13"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="AG24" s="36"/>
+      <c r="BO24" s="29"/>
+    </row>
+    <row r="25" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="5">
-        <v>43490</v>
+        <v>43489</v>
       </c>
       <c r="F25" s="5">
         <v>43490</v>
       </c>
       <c r="G25" s="9">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H25" s="13"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="AF25" s="32"/>
+      <c r="AG25" s="34"/>
+      <c r="BO25" s="29"/>
+    </row>
+    <row r="26" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
-      <c r="B26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="5">
         <v>43490</v>
       </c>
       <c r="F26" s="5">
-        <v>43491</v>
+        <v>43490</v>
       </c>
       <c r="G26" s="9">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H26" s="13"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="AG26" s="36"/>
+      <c r="BO26" s="29"/>
+    </row>
+    <row r="27" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="5">
         <v>43490</v>
@@ -2354,17 +2962,18 @@
         <v>43491</v>
       </c>
       <c r="G27" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="H27" s="13"/>
+      <c r="AG27" s="32"/>
+      <c r="AH27" s="34"/>
+      <c r="BO27" s="29"/>
+    </row>
+    <row r="28" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="5">
@@ -2374,17 +2983,20 @@
         <v>43491</v>
       </c>
       <c r="G28" s="9">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H28" s="13" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="AG28" s="32"/>
+      <c r="AH28" s="34"/>
+      <c r="BO28" s="29"/>
+    </row>
+    <row r="29" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="5">
@@ -2394,17 +3006,20 @@
         <v>43491</v>
       </c>
       <c r="G29" s="9">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H29" s="13" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="AG29" s="32"/>
+      <c r="AH29" s="34"/>
+      <c r="BO29" s="29"/>
+    </row>
+    <row r="30" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="5">
@@ -2414,57 +3029,83 @@
         <v>43491</v>
       </c>
       <c r="G30" s="9">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H30" s="13" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="AG30" s="32"/>
+      <c r="AH30" s="34"/>
+      <c r="BO30" s="29"/>
+    </row>
+    <row r="31" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="1"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D31" s="2"/>
       <c r="E31" s="5">
+        <v>43490</v>
+      </c>
+      <c r="F31" s="5">
         <v>43491</v>
       </c>
-      <c r="F31" s="5">
-        <v>43507</v>
-      </c>
       <c r="G31" s="9">
-        <v>0</v>
-      </c>
-      <c r="H31" s="13"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2" t="s">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG31" s="32"/>
+      <c r="AH31" s="38"/>
+      <c r="BO31" s="29"/>
+    </row>
+    <row r="32" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="5">
         <v>43491</v>
       </c>
       <c r="F32" s="5">
-        <v>43492</v>
+        <v>43507</v>
       </c>
       <c r="G32" s="9">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H32" s="13"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="AH32" s="32"/>
+      <c r="AI32" s="33"/>
+      <c r="AJ32" s="33"/>
+      <c r="AK32" s="33"/>
+      <c r="AL32" s="33"/>
+      <c r="AM32" s="33"/>
+      <c r="AN32" s="33"/>
+      <c r="AO32" s="33"/>
+      <c r="AP32" s="33"/>
+      <c r="AQ32" s="33"/>
+      <c r="AR32" s="33"/>
+      <c r="AS32" s="33"/>
+      <c r="AT32" s="33"/>
+      <c r="AU32" s="33"/>
+      <c r="AV32" s="33"/>
+      <c r="AW32" s="33"/>
+      <c r="AX32" s="34"/>
+      <c r="BO32" s="29"/>
+    </row>
+    <row r="33" spans="1:68" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="5">
-        <v>43492</v>
+        <v>43491</v>
       </c>
       <c r="F33" s="5">
         <v>43492</v>
@@ -2473,47 +3114,55 @@
         <v>0.7</v>
       </c>
       <c r="H33" s="13"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="AH33" s="40"/>
+      <c r="AI33" s="42"/>
+      <c r="BO33" s="29"/>
+    </row>
+    <row r="34" spans="1:68" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="5">
-        <v>43493</v>
+        <v>43492</v>
       </c>
       <c r="F34" s="5">
-        <v>43505</v>
+        <v>43492</v>
       </c>
       <c r="G34" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H34" s="13"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="AI34" s="35"/>
+      <c r="BO34" s="29"/>
+    </row>
+    <row r="35" spans="1:68" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
       <c r="B35" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="5">
+        <v>43504</v>
+      </c>
+      <c r="F35" s="5">
         <v>43505</v>
-      </c>
-      <c r="F35" s="5">
-        <v>43506</v>
       </c>
       <c r="G35" s="9">
         <v>0</v>
       </c>
       <c r="H35" s="13"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="AU35" s="32"/>
+      <c r="AV35" s="38"/>
+      <c r="BO35" s="29"/>
+    </row>
+    <row r="36" spans="1:68" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2521,96 +3170,122 @@
         <v>43505</v>
       </c>
       <c r="F36" s="5">
-        <v>43507</v>
+        <v>43506</v>
       </c>
       <c r="G36" s="9">
         <v>0</v>
       </c>
-      <c r="H36" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="2"/>
+      <c r="H36" s="13"/>
+      <c r="AV36" s="39"/>
+      <c r="AW36" s="38"/>
+      <c r="BO36" s="29"/>
+    </row>
+    <row r="37" spans="1:68" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="5">
         <v>43505</v>
       </c>
       <c r="F37" s="5">
-        <v>43513</v>
+        <v>43507</v>
       </c>
       <c r="G37" s="9">
         <v>0</v>
       </c>
-      <c r="H37" s="13"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="1"/>
-      <c r="B38" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="H37" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AV37" s="39"/>
+      <c r="AW37" s="37"/>
+      <c r="AX37" s="38"/>
+      <c r="BO37" s="29"/>
+    </row>
+    <row r="38" spans="1:68" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="5">
         <v>43505</v>
       </c>
       <c r="F38" s="5">
-        <v>43508</v>
+        <v>43513</v>
       </c>
       <c r="G38" s="9">
         <v>0</v>
       </c>
       <c r="H38" s="13"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="AV38" s="32"/>
+      <c r="AW38" s="33"/>
+      <c r="AX38" s="33"/>
+      <c r="AY38" s="33"/>
+      <c r="AZ38" s="33"/>
+      <c r="BA38" s="33"/>
+      <c r="BB38" s="33"/>
+      <c r="BC38" s="33"/>
+      <c r="BD38" s="34"/>
+      <c r="BO38" s="29"/>
+    </row>
+    <row r="39" spans="1:68" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
       <c r="B39" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="5">
-        <v>43509</v>
+        <v>43505</v>
       </c>
       <c r="F39" s="5">
-        <v>43511</v>
+        <v>43508</v>
       </c>
       <c r="G39" s="9">
         <v>0</v>
       </c>
       <c r="H39" s="13"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="AV39" s="40"/>
+      <c r="AW39" s="41"/>
+      <c r="AX39" s="41"/>
+      <c r="AY39" s="42"/>
+      <c r="BO39" s="29"/>
+    </row>
+    <row r="40" spans="1:68" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
       <c r="B40" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="5">
+        <v>43509</v>
+      </c>
+      <c r="F40" s="5">
         <v>43511</v>
-      </c>
-      <c r="F40" s="5">
-        <v>43512</v>
       </c>
       <c r="G40" s="9">
         <v>0</v>
       </c>
       <c r="H40" s="13"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="AZ40" s="32"/>
+      <c r="BA40" s="33"/>
+      <c r="BB40" s="38"/>
+      <c r="BO40" s="29"/>
+    </row>
+    <row r="41" spans="1:68" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
       <c r="B41" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <v>43512</v>
+        <v>43511</v>
       </c>
       <c r="F41" s="5">
         <v>43512</v>
@@ -2619,11 +3294,14 @@
         <v>0</v>
       </c>
       <c r="H41" s="13"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="BB41" s="32"/>
+      <c r="BC41" s="34"/>
+      <c r="BO41" s="29"/>
+    </row>
+    <row r="42" spans="1:68" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2631,70 +3309,177 @@
         <v>43512</v>
       </c>
       <c r="F42" s="5">
-        <v>43513</v>
+        <v>43512</v>
       </c>
       <c r="G42" s="9">
         <v>0</v>
       </c>
-      <c r="H42" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A43" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="2"/>
+      <c r="H42" s="13"/>
+      <c r="BC42" s="36"/>
+      <c r="BO42" s="29"/>
+    </row>
+    <row r="43" spans="1:68" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
-        <v>43514</v>
+        <v>43512</v>
       </c>
       <c r="F43" s="5">
-        <v>43524</v>
+        <v>43513</v>
       </c>
       <c r="G43" s="9">
         <v>0</v>
       </c>
-      <c r="H43" s="13"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A44" s="1"/>
-      <c r="B44" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="H43" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="BC43" s="32"/>
+      <c r="BD43" s="34"/>
+      <c r="BO43" s="29"/>
+    </row>
+    <row r="44" spans="1:68" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
         <v>43514</v>
       </c>
       <c r="F44" s="5">
-        <v>43518</v>
+        <v>43524</v>
       </c>
       <c r="G44" s="9">
         <v>0</v>
       </c>
       <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="3"/>
-      <c r="B45" s="4" t="s">
+      <c r="BE44" s="32"/>
+      <c r="BF44" s="33"/>
+      <c r="BG44" s="33"/>
+      <c r="BH44" s="33"/>
+      <c r="BI44" s="33"/>
+      <c r="BJ44" s="33"/>
+      <c r="BK44" s="33"/>
+      <c r="BL44" s="33"/>
+      <c r="BM44" s="33"/>
+      <c r="BN44" s="33"/>
+      <c r="BO44" s="34"/>
+    </row>
+    <row r="45" spans="1:68" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="5">
+        <v>43514</v>
+      </c>
+      <c r="F45" s="5">
+        <v>43518</v>
+      </c>
+      <c r="G45" s="9">
+        <v>0</v>
+      </c>
+      <c r="H45" s="13"/>
+      <c r="BE45" s="40"/>
+      <c r="BF45" s="41"/>
+      <c r="BG45" s="41"/>
+      <c r="BH45" s="41"/>
+      <c r="BI45" s="42"/>
+      <c r="BO45" s="29"/>
+    </row>
+    <row r="46" spans="1:68" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A46" s="3"/>
+      <c r="B46" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="8">
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="8">
         <v>43519</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F46" s="8">
         <v>43524</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G46" s="10">
         <v>0</v>
       </c>
-      <c r="H45" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="31"/>
+      <c r="Q46" s="31"/>
+      <c r="R46" s="31"/>
+      <c r="S46" s="31"/>
+      <c r="T46" s="31"/>
+      <c r="U46" s="31"/>
+      <c r="V46" s="31"/>
+      <c r="W46" s="31"/>
+      <c r="X46" s="31"/>
+      <c r="Y46" s="31"/>
+      <c r="Z46" s="31"/>
+      <c r="AA46" s="31"/>
+      <c r="AB46" s="31"/>
+      <c r="AC46" s="31"/>
+      <c r="AD46" s="31"/>
+      <c r="AE46" s="31"/>
+      <c r="AF46" s="31"/>
+      <c r="AG46" s="31"/>
+      <c r="AH46" s="31"/>
+      <c r="AI46" s="31"/>
+      <c r="AJ46" s="31"/>
+      <c r="AK46" s="31"/>
+      <c r="AL46" s="31"/>
+      <c r="AM46" s="31"/>
+      <c r="AN46" s="31"/>
+      <c r="AO46" s="31"/>
+      <c r="AP46" s="31"/>
+      <c r="AQ46" s="31"/>
+      <c r="AR46" s="31"/>
+      <c r="AS46" s="31"/>
+      <c r="AT46" s="31"/>
+      <c r="AU46" s="31"/>
+      <c r="AV46" s="31"/>
+      <c r="AW46" s="31"/>
+      <c r="AX46" s="31"/>
+      <c r="AY46" s="31"/>
+      <c r="AZ46" s="31"/>
+      <c r="BA46" s="31"/>
+      <c r="BB46" s="31"/>
+      <c r="BC46" s="31"/>
+      <c r="BD46" s="31"/>
+      <c r="BE46" s="31"/>
+      <c r="BF46" s="31"/>
+      <c r="BG46" s="31"/>
+      <c r="BH46" s="31"/>
+      <c r="BI46" s="31"/>
+      <c r="BJ46" s="32"/>
+      <c r="BK46" s="33"/>
+      <c r="BL46" s="33"/>
+      <c r="BM46" s="33"/>
+      <c r="BN46" s="33"/>
+      <c r="BO46" s="34"/>
+    </row>
+    <row r="47" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="BO47" s="2"/>
+      <c r="BP47" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I1:AM1"/>
+    <mergeCell ref="AN1:BO1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/スケジュール/ポーカー改修スケジュール.xlsx
+++ b/docs/スケジュール/ポーカー改修スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BDB2F4-F7B0-44BD-93A8-BEE943790EEB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709A469F-F5C7-41FF-9AA4-DA413F41A00C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="7764" activeTab="1" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
@@ -406,7 +406,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -908,6 +908,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="55" fontId="2" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -917,65 +968,14 @@
     <xf numFmtId="55" fontId="2" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2153,8 +2153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1353E68-709A-4869-9FB5-3F7A241FCBD2}">
   <dimension ref="A1:BP47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2169,69 +2169,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I1" s="20">
+      <c r="I1" s="37">
         <v>43466</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="23">
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="40">
         <v>43497</v>
       </c>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="24"/>
-      <c r="AS1" s="24"/>
-      <c r="AT1" s="24"/>
-      <c r="AU1" s="24"/>
-      <c r="AV1" s="24"/>
-      <c r="AW1" s="24"/>
-      <c r="AX1" s="24"/>
-      <c r="AY1" s="24"/>
-      <c r="AZ1" s="24"/>
-      <c r="BA1" s="24"/>
-      <c r="BB1" s="24"/>
-      <c r="BC1" s="24"/>
-      <c r="BD1" s="24"/>
-      <c r="BE1" s="24"/>
-      <c r="BF1" s="24"/>
-      <c r="BG1" s="24"/>
-      <c r="BH1" s="24"/>
-      <c r="BI1" s="24"/>
-      <c r="BJ1" s="24"/>
-      <c r="BK1" s="24"/>
-      <c r="BL1" s="24"/>
-      <c r="BM1" s="24"/>
-      <c r="BN1" s="24"/>
-      <c r="BO1" s="25"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="41"/>
+      <c r="AW1" s="41"/>
+      <c r="AX1" s="41"/>
+      <c r="AY1" s="41"/>
+      <c r="AZ1" s="41"/>
+      <c r="BA1" s="41"/>
+      <c r="BB1" s="41"/>
+      <c r="BC1" s="41"/>
+      <c r="BD1" s="41"/>
+      <c r="BE1" s="41"/>
+      <c r="BF1" s="41"/>
+      <c r="BG1" s="41"/>
+      <c r="BH1" s="41"/>
+      <c r="BI1" s="41"/>
+      <c r="BJ1" s="41"/>
+      <c r="BK1" s="41"/>
+      <c r="BL1" s="41"/>
+      <c r="BM1" s="41"/>
+      <c r="BN1" s="41"/>
+      <c r="BO1" s="42"/>
     </row>
     <row r="2" spans="1:67" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="16" t="s">
@@ -2252,181 +2252,181 @@
       <c r="H2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="26">
-        <v>1</v>
-      </c>
-      <c r="J2" s="27">
+      <c r="I2" s="20">
+        <v>1</v>
+      </c>
+      <c r="J2" s="21">
         <v>2</v>
       </c>
-      <c r="K2" s="27">
+      <c r="K2" s="21">
         <v>3</v>
       </c>
-      <c r="L2" s="27">
+      <c r="L2" s="21">
         <v>4</v>
       </c>
-      <c r="M2" s="27">
+      <c r="M2" s="21">
         <v>5</v>
       </c>
-      <c r="N2" s="27">
+      <c r="N2" s="21">
         <v>6</v>
       </c>
-      <c r="O2" s="27">
+      <c r="O2" s="21">
         <v>7</v>
       </c>
-      <c r="P2" s="27">
+      <c r="P2" s="21">
         <v>8</v>
       </c>
-      <c r="Q2" s="27">
+      <c r="Q2" s="21">
         <v>9</v>
       </c>
-      <c r="R2" s="27">
+      <c r="R2" s="21">
         <v>10</v>
       </c>
-      <c r="S2" s="27">
+      <c r="S2" s="21">
         <v>11</v>
       </c>
-      <c r="T2" s="27">
+      <c r="T2" s="21">
         <v>12</v>
       </c>
-      <c r="U2" s="27">
+      <c r="U2" s="21">
         <v>13</v>
       </c>
-      <c r="V2" s="27">
+      <c r="V2" s="21">
         <v>14</v>
       </c>
-      <c r="W2" s="27">
+      <c r="W2" s="21">
         <v>15</v>
       </c>
-      <c r="X2" s="27">
+      <c r="X2" s="21">
         <v>16</v>
       </c>
-      <c r="Y2" s="27">
+      <c r="Y2" s="21">
         <v>17</v>
       </c>
-      <c r="Z2" s="27">
+      <c r="Z2" s="21">
         <v>18</v>
       </c>
-      <c r="AA2" s="27">
+      <c r="AA2" s="21">
         <v>19</v>
       </c>
-      <c r="AB2" s="27">
+      <c r="AB2" s="21">
         <v>20</v>
       </c>
-      <c r="AC2" s="27">
+      <c r="AC2" s="21">
         <v>21</v>
       </c>
-      <c r="AD2" s="27">
+      <c r="AD2" s="21">
         <v>22</v>
       </c>
-      <c r="AE2" s="27">
+      <c r="AE2" s="21">
         <v>23</v>
       </c>
-      <c r="AF2" s="27">
+      <c r="AF2" s="21">
         <v>24</v>
       </c>
-      <c r="AG2" s="27">
+      <c r="AG2" s="21">
         <v>25</v>
       </c>
-      <c r="AH2" s="27">
+      <c r="AH2" s="21">
         <v>26</v>
       </c>
-      <c r="AI2" s="27">
+      <c r="AI2" s="21">
         <v>27</v>
       </c>
-      <c r="AJ2" s="27">
+      <c r="AJ2" s="21">
         <v>28</v>
       </c>
-      <c r="AK2" s="27">
+      <c r="AK2" s="21">
         <v>29</v>
       </c>
-      <c r="AL2" s="27">
+      <c r="AL2" s="21">
         <v>30</v>
       </c>
-      <c r="AM2" s="27">
+      <c r="AM2" s="21">
         <v>31</v>
       </c>
-      <c r="AN2" s="27">
-        <v>1</v>
-      </c>
-      <c r="AO2" s="27">
+      <c r="AN2" s="21">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="21">
         <v>2</v>
       </c>
-      <c r="AP2" s="27">
+      <c r="AP2" s="21">
         <v>3</v>
       </c>
-      <c r="AQ2" s="27">
+      <c r="AQ2" s="21">
         <v>4</v>
       </c>
-      <c r="AR2" s="27">
+      <c r="AR2" s="21">
         <v>5</v>
       </c>
-      <c r="AS2" s="27">
+      <c r="AS2" s="21">
         <v>6</v>
       </c>
-      <c r="AT2" s="27">
+      <c r="AT2" s="21">
         <v>7</v>
       </c>
-      <c r="AU2" s="27">
+      <c r="AU2" s="21">
         <v>8</v>
       </c>
-      <c r="AV2" s="27">
+      <c r="AV2" s="21">
         <v>9</v>
       </c>
-      <c r="AW2" s="27">
+      <c r="AW2" s="21">
         <v>10</v>
       </c>
-      <c r="AX2" s="27">
+      <c r="AX2" s="21">
         <v>11</v>
       </c>
-      <c r="AY2" s="27">
+      <c r="AY2" s="21">
         <v>12</v>
       </c>
-      <c r="AZ2" s="27">
+      <c r="AZ2" s="21">
         <v>13</v>
       </c>
-      <c r="BA2" s="27">
+      <c r="BA2" s="21">
         <v>14</v>
       </c>
-      <c r="BB2" s="27">
+      <c r="BB2" s="21">
         <v>15</v>
       </c>
-      <c r="BC2" s="27">
+      <c r="BC2" s="21">
         <v>16</v>
       </c>
-      <c r="BD2" s="27">
+      <c r="BD2" s="21">
         <v>17</v>
       </c>
-      <c r="BE2" s="27">
+      <c r="BE2" s="21">
         <v>18</v>
       </c>
-      <c r="BF2" s="27">
+      <c r="BF2" s="21">
         <v>19</v>
       </c>
-      <c r="BG2" s="27">
+      <c r="BG2" s="21">
         <v>20</v>
       </c>
-      <c r="BH2" s="27">
+      <c r="BH2" s="21">
         <v>21</v>
       </c>
-      <c r="BI2" s="27">
+      <c r="BI2" s="21">
         <v>22</v>
       </c>
-      <c r="BJ2" s="27">
+      <c r="BJ2" s="21">
         <v>23</v>
       </c>
-      <c r="BK2" s="27">
+      <c r="BK2" s="21">
         <v>24</v>
       </c>
-      <c r="BL2" s="27">
+      <c r="BL2" s="21">
         <v>25</v>
       </c>
-      <c r="BM2" s="27">
+      <c r="BM2" s="21">
         <v>26</v>
       </c>
-      <c r="BN2" s="27">
+      <c r="BN2" s="21">
         <v>27</v>
       </c>
-      <c r="BO2" s="27">
+      <c r="BO2" s="21">
         <v>28</v>
       </c>
     </row>
@@ -2447,11 +2447,11 @@
         <v>1</v>
       </c>
       <c r="H3" s="12"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="34"/>
-      <c r="BO3" s="28"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="28"/>
+      <c r="BO3" s="22"/>
     </row>
     <row r="4" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
@@ -2470,10 +2470,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="13"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="42"/>
-      <c r="BO4" s="29"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="36"/>
+      <c r="BO4" s="23"/>
     </row>
     <row r="5" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
@@ -2492,10 +2492,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="13"/>
-      <c r="AD5" s="32"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="34"/>
-      <c r="BO5" s="29"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="28"/>
+      <c r="BO5" s="23"/>
     </row>
     <row r="6" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
@@ -2514,10 +2514,10 @@
         <v>1</v>
       </c>
       <c r="H6" s="13"/>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="34"/>
-      <c r="BO6" s="29"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="28"/>
+      <c r="BO6" s="23"/>
     </row>
     <row r="7" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
@@ -2536,10 +2536,10 @@
         <v>1</v>
       </c>
       <c r="H7" s="13"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="33"/>
-      <c r="AF7" s="34"/>
-      <c r="BO7" s="29"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="28"/>
+      <c r="BO7" s="23"/>
     </row>
     <row r="8" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
@@ -2558,10 +2558,10 @@
         <v>1</v>
       </c>
       <c r="H8" s="13"/>
-      <c r="AD8" s="32"/>
-      <c r="AE8" s="33"/>
-      <c r="AF8" s="34"/>
-      <c r="BO8" s="29"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="28"/>
+      <c r="BO8" s="23"/>
     </row>
     <row r="9" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
@@ -2580,9 +2580,9 @@
         <v>1</v>
       </c>
       <c r="H9" s="13"/>
-      <c r="AE9" s="32"/>
-      <c r="AF9" s="34"/>
-      <c r="BO9" s="29"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="28"/>
+      <c r="BO9" s="23"/>
     </row>
     <row r="10" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
@@ -2601,8 +2601,8 @@
         <v>1</v>
       </c>
       <c r="H10" s="13"/>
-      <c r="AE10" s="35"/>
-      <c r="BO10" s="29"/>
+      <c r="AE10" s="29"/>
+      <c r="BO10" s="23"/>
     </row>
     <row r="11" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
@@ -2621,8 +2621,8 @@
         <v>1</v>
       </c>
       <c r="H11" s="13"/>
-      <c r="AE11" s="36"/>
-      <c r="BO11" s="29"/>
+      <c r="AE11" s="30"/>
+      <c r="BO11" s="23"/>
     </row>
     <row r="12" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
@@ -2641,9 +2641,9 @@
         <v>1</v>
       </c>
       <c r="H12" s="13"/>
-      <c r="AE12" s="32"/>
-      <c r="AF12" s="34"/>
-      <c r="BO12" s="29"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="28"/>
+      <c r="BO12" s="23"/>
     </row>
     <row r="13" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
@@ -2662,9 +2662,9 @@
         <v>1</v>
       </c>
       <c r="H13" s="13"/>
-      <c r="AE13" s="32"/>
-      <c r="AF13" s="34"/>
-      <c r="BO13" s="29"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="28"/>
+      <c r="BO13" s="23"/>
     </row>
     <row r="14" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
@@ -2685,9 +2685,9 @@
       <c r="H14" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AG14" s="32"/>
-      <c r="AH14" s="34"/>
-      <c r="BO14" s="29"/>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="28"/>
+      <c r="BO14" s="23"/>
     </row>
     <row r="15" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
@@ -2706,8 +2706,8 @@
         <v>1</v>
       </c>
       <c r="H15" s="13"/>
-      <c r="AG15" s="36"/>
-      <c r="BO15" s="29"/>
+      <c r="AG15" s="30"/>
+      <c r="BO15" s="23"/>
     </row>
     <row r="16" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
@@ -2726,12 +2726,12 @@
         <v>1</v>
       </c>
       <c r="H16" s="13"/>
-      <c r="AD16" s="32"/>
-      <c r="AE16" s="33"/>
-      <c r="AF16" s="33"/>
-      <c r="AG16" s="33"/>
-      <c r="AH16" s="34"/>
-      <c r="BO16" s="29"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="28"/>
+      <c r="BO16" s="23"/>
     </row>
     <row r="17" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
@@ -2750,10 +2750,10 @@
         <v>1</v>
       </c>
       <c r="H17" s="13"/>
-      <c r="AD17" s="32"/>
-      <c r="AE17" s="33"/>
-      <c r="AF17" s="34"/>
-      <c r="BO17" s="29"/>
+      <c r="AD17" s="26"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="28"/>
+      <c r="BO17" s="23"/>
     </row>
     <row r="18" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
@@ -2772,10 +2772,10 @@
         <v>1</v>
       </c>
       <c r="H18" s="13"/>
-      <c r="AD18" s="32"/>
-      <c r="AE18" s="33"/>
-      <c r="AF18" s="34"/>
-      <c r="BO18" s="29"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="28"/>
+      <c r="BO18" s="23"/>
     </row>
     <row r="19" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
@@ -2794,10 +2794,10 @@
         <v>1</v>
       </c>
       <c r="H19" s="13"/>
-      <c r="AD19" s="32"/>
-      <c r="AE19" s="33"/>
-      <c r="AF19" s="34"/>
-      <c r="BO19" s="29"/>
+      <c r="AD19" s="26"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="28"/>
+      <c r="BO19" s="23"/>
     </row>
     <row r="20" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
@@ -2816,10 +2816,10 @@
         <v>1</v>
       </c>
       <c r="H20" s="13"/>
-      <c r="AD20" s="32"/>
-      <c r="AE20" s="33"/>
-      <c r="AF20" s="34"/>
-      <c r="BO20" s="29"/>
+      <c r="AD20" s="26"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="28"/>
+      <c r="BO20" s="23"/>
     </row>
     <row r="21" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
@@ -2838,10 +2838,10 @@
         <v>1</v>
       </c>
       <c r="H21" s="13"/>
-      <c r="AD21" s="32"/>
-      <c r="AE21" s="37"/>
-      <c r="AF21" s="38"/>
-      <c r="BO21" s="29"/>
+      <c r="AD21" s="26"/>
+      <c r="AE21" s="31"/>
+      <c r="AF21" s="32"/>
+      <c r="BO21" s="23"/>
     </row>
     <row r="22" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
@@ -2860,10 +2860,10 @@
         <v>1</v>
       </c>
       <c r="H22" s="13"/>
-      <c r="AE22" s="32"/>
-      <c r="AF22" s="33"/>
-      <c r="AG22" s="34"/>
-      <c r="BO22" s="29"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="28"/>
+      <c r="BO22" s="23"/>
     </row>
     <row r="23" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
@@ -2882,10 +2882,10 @@
         <v>1</v>
       </c>
       <c r="H23" s="13"/>
-      <c r="AE23" s="32"/>
-      <c r="AF23" s="33"/>
-      <c r="AG23" s="34"/>
-      <c r="BO23" s="29"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="28"/>
+      <c r="BO23" s="23"/>
     </row>
     <row r="24" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
@@ -2904,8 +2904,8 @@
         <v>1</v>
       </c>
       <c r="H24" s="13"/>
-      <c r="AG24" s="36"/>
-      <c r="BO24" s="29"/>
+      <c r="AG24" s="30"/>
+      <c r="BO24" s="23"/>
     </row>
     <row r="25" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
@@ -2924,9 +2924,9 @@
         <v>1</v>
       </c>
       <c r="H25" s="13"/>
-      <c r="AF25" s="32"/>
-      <c r="AG25" s="34"/>
-      <c r="BO25" s="29"/>
+      <c r="AF25" s="26"/>
+      <c r="AG25" s="28"/>
+      <c r="BO25" s="23"/>
     </row>
     <row r="26" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
@@ -2945,8 +2945,8 @@
         <v>1</v>
       </c>
       <c r="H26" s="13"/>
-      <c r="AG26" s="36"/>
-      <c r="BO26" s="29"/>
+      <c r="AG26" s="30"/>
+      <c r="BO26" s="23"/>
     </row>
     <row r="27" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
@@ -2965,9 +2965,9 @@
         <v>1</v>
       </c>
       <c r="H27" s="13"/>
-      <c r="AG27" s="32"/>
-      <c r="AH27" s="34"/>
-      <c r="BO27" s="29"/>
+      <c r="AG27" s="26"/>
+      <c r="AH27" s="28"/>
+      <c r="BO27" s="23"/>
     </row>
     <row r="28" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
@@ -2988,9 +2988,9 @@
       <c r="H28" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="AG28" s="32"/>
-      <c r="AH28" s="34"/>
-      <c r="BO28" s="29"/>
+      <c r="AG28" s="26"/>
+      <c r="AH28" s="28"/>
+      <c r="BO28" s="23"/>
     </row>
     <row r="29" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
@@ -3011,9 +3011,9 @@
       <c r="H29" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="AG29" s="32"/>
-      <c r="AH29" s="34"/>
-      <c r="BO29" s="29"/>
+      <c r="AG29" s="26"/>
+      <c r="AH29" s="28"/>
+      <c r="BO29" s="23"/>
     </row>
     <row r="30" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
@@ -3034,9 +3034,9 @@
       <c r="H30" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="AG30" s="32"/>
-      <c r="AH30" s="34"/>
-      <c r="BO30" s="29"/>
+      <c r="AG30" s="26"/>
+      <c r="AH30" s="28"/>
+      <c r="BO30" s="23"/>
     </row>
     <row r="31" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
@@ -3057,9 +3057,9 @@
       <c r="H31" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="AG31" s="32"/>
-      <c r="AH31" s="38"/>
-      <c r="BO31" s="29"/>
+      <c r="AG31" s="26"/>
+      <c r="AH31" s="32"/>
+      <c r="BO31" s="23"/>
     </row>
     <row r="32" spans="1:67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
@@ -3078,24 +3078,24 @@
         <v>0</v>
       </c>
       <c r="H32" s="13"/>
-      <c r="AH32" s="32"/>
-      <c r="AI32" s="33"/>
-      <c r="AJ32" s="33"/>
-      <c r="AK32" s="33"/>
-      <c r="AL32" s="33"/>
-      <c r="AM32" s="33"/>
-      <c r="AN32" s="33"/>
-      <c r="AO32" s="33"/>
-      <c r="AP32" s="33"/>
-      <c r="AQ32" s="33"/>
-      <c r="AR32" s="33"/>
-      <c r="AS32" s="33"/>
-      <c r="AT32" s="33"/>
-      <c r="AU32" s="33"/>
-      <c r="AV32" s="33"/>
-      <c r="AW32" s="33"/>
-      <c r="AX32" s="34"/>
-      <c r="BO32" s="29"/>
+      <c r="AH32" s="26"/>
+      <c r="AI32" s="27"/>
+      <c r="AJ32" s="27"/>
+      <c r="AK32" s="27"/>
+      <c r="AL32" s="27"/>
+      <c r="AM32" s="27"/>
+      <c r="AN32" s="27"/>
+      <c r="AO32" s="27"/>
+      <c r="AP32" s="27"/>
+      <c r="AQ32" s="27"/>
+      <c r="AR32" s="27"/>
+      <c r="AS32" s="27"/>
+      <c r="AT32" s="27"/>
+      <c r="AU32" s="27"/>
+      <c r="AV32" s="27"/>
+      <c r="AW32" s="27"/>
+      <c r="AX32" s="28"/>
+      <c r="BO32" s="23"/>
     </row>
     <row r="33" spans="1:68" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
@@ -3111,12 +3111,12 @@
         <v>43492</v>
       </c>
       <c r="G33" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H33" s="13"/>
-      <c r="AH33" s="40"/>
-      <c r="AI33" s="42"/>
-      <c r="BO33" s="29"/>
+      <c r="AH33" s="34"/>
+      <c r="AI33" s="36"/>
+      <c r="BO33" s="23"/>
     </row>
     <row r="34" spans="1:68" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
@@ -3132,11 +3132,11 @@
         <v>43492</v>
       </c>
       <c r="G34" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H34" s="13"/>
-      <c r="AI34" s="35"/>
-      <c r="BO34" s="29"/>
+      <c r="AI34" s="29"/>
+      <c r="BO34" s="23"/>
     </row>
     <row r="35" spans="1:68" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
@@ -3152,12 +3152,12 @@
         <v>43505</v>
       </c>
       <c r="G35" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H35" s="13"/>
-      <c r="AU35" s="32"/>
-      <c r="AV35" s="38"/>
-      <c r="BO35" s="29"/>
+      <c r="AU35" s="26"/>
+      <c r="AV35" s="32"/>
+      <c r="BO35" s="23"/>
     </row>
     <row r="36" spans="1:68" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
@@ -3173,12 +3173,12 @@
         <v>43506</v>
       </c>
       <c r="G36" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H36" s="13"/>
-      <c r="AV36" s="39"/>
-      <c r="AW36" s="38"/>
-      <c r="BO36" s="29"/>
+      <c r="AV36" s="33"/>
+      <c r="AW36" s="32"/>
+      <c r="BO36" s="23"/>
     </row>
     <row r="37" spans="1:68" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
@@ -3199,10 +3199,10 @@
       <c r="H37" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="AV37" s="39"/>
-      <c r="AW37" s="37"/>
-      <c r="AX37" s="38"/>
-      <c r="BO37" s="29"/>
+      <c r="AV37" s="33"/>
+      <c r="AW37" s="31"/>
+      <c r="AX37" s="32"/>
+      <c r="BO37" s="23"/>
     </row>
     <row r="38" spans="1:68" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
@@ -3221,16 +3221,16 @@
         <v>0</v>
       </c>
       <c r="H38" s="13"/>
-      <c r="AV38" s="32"/>
-      <c r="AW38" s="33"/>
-      <c r="AX38" s="33"/>
-      <c r="AY38" s="33"/>
-      <c r="AZ38" s="33"/>
-      <c r="BA38" s="33"/>
-      <c r="BB38" s="33"/>
-      <c r="BC38" s="33"/>
-      <c r="BD38" s="34"/>
-      <c r="BO38" s="29"/>
+      <c r="AV38" s="26"/>
+      <c r="AW38" s="27"/>
+      <c r="AX38" s="27"/>
+      <c r="AY38" s="27"/>
+      <c r="AZ38" s="27"/>
+      <c r="BA38" s="27"/>
+      <c r="BB38" s="27"/>
+      <c r="BC38" s="27"/>
+      <c r="BD38" s="28"/>
+      <c r="BO38" s="23"/>
     </row>
     <row r="39" spans="1:68" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
@@ -3249,11 +3249,11 @@
         <v>0</v>
       </c>
       <c r="H39" s="13"/>
-      <c r="AV39" s="40"/>
-      <c r="AW39" s="41"/>
-      <c r="AX39" s="41"/>
-      <c r="AY39" s="42"/>
-      <c r="BO39" s="29"/>
+      <c r="AV39" s="34"/>
+      <c r="AW39" s="35"/>
+      <c r="AX39" s="35"/>
+      <c r="AY39" s="36"/>
+      <c r="BO39" s="23"/>
     </row>
     <row r="40" spans="1:68" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
@@ -3272,10 +3272,10 @@
         <v>0</v>
       </c>
       <c r="H40" s="13"/>
-      <c r="AZ40" s="32"/>
-      <c r="BA40" s="33"/>
-      <c r="BB40" s="38"/>
-      <c r="BO40" s="29"/>
+      <c r="AZ40" s="26"/>
+      <c r="BA40" s="27"/>
+      <c r="BB40" s="32"/>
+      <c r="BO40" s="23"/>
     </row>
     <row r="41" spans="1:68" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
@@ -3294,9 +3294,9 @@
         <v>0</v>
       </c>
       <c r="H41" s="13"/>
-      <c r="BB41" s="32"/>
-      <c r="BC41" s="34"/>
-      <c r="BO41" s="29"/>
+      <c r="BB41" s="26"/>
+      <c r="BC41" s="28"/>
+      <c r="BO41" s="23"/>
     </row>
     <row r="42" spans="1:68" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
@@ -3315,8 +3315,8 @@
         <v>0</v>
       </c>
       <c r="H42" s="13"/>
-      <c r="BC42" s="36"/>
-      <c r="BO42" s="29"/>
+      <c r="BC42" s="30"/>
+      <c r="BO42" s="23"/>
     </row>
     <row r="43" spans="1:68" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="1"/>
@@ -3337,9 +3337,9 @@
       <c r="H43" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="BC43" s="32"/>
-      <c r="BD43" s="34"/>
-      <c r="BO43" s="29"/>
+      <c r="BC43" s="26"/>
+      <c r="BD43" s="28"/>
+      <c r="BO43" s="23"/>
     </row>
     <row r="44" spans="1:68" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
@@ -3358,17 +3358,17 @@
         <v>0</v>
       </c>
       <c r="H44" s="13"/>
-      <c r="BE44" s="32"/>
-      <c r="BF44" s="33"/>
-      <c r="BG44" s="33"/>
-      <c r="BH44" s="33"/>
-      <c r="BI44" s="33"/>
-      <c r="BJ44" s="33"/>
-      <c r="BK44" s="33"/>
-      <c r="BL44" s="33"/>
-      <c r="BM44" s="33"/>
-      <c r="BN44" s="33"/>
-      <c r="BO44" s="34"/>
+      <c r="BE44" s="26"/>
+      <c r="BF44" s="27"/>
+      <c r="BG44" s="27"/>
+      <c r="BH44" s="27"/>
+      <c r="BI44" s="27"/>
+      <c r="BJ44" s="27"/>
+      <c r="BK44" s="27"/>
+      <c r="BL44" s="27"/>
+      <c r="BM44" s="27"/>
+      <c r="BN44" s="27"/>
+      <c r="BO44" s="28"/>
     </row>
     <row r="45" spans="1:68" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="1"/>
@@ -3387,12 +3387,12 @@
         <v>0</v>
       </c>
       <c r="H45" s="13"/>
-      <c r="BE45" s="40"/>
-      <c r="BF45" s="41"/>
-      <c r="BG45" s="41"/>
-      <c r="BH45" s="41"/>
-      <c r="BI45" s="42"/>
-      <c r="BO45" s="29"/>
+      <c r="BE45" s="34"/>
+      <c r="BF45" s="35"/>
+      <c r="BG45" s="35"/>
+      <c r="BH45" s="35"/>
+      <c r="BI45" s="36"/>
+      <c r="BO45" s="23"/>
     </row>
     <row r="46" spans="1:68" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A46" s="3"/>
@@ -3411,65 +3411,65 @@
         <v>0</v>
       </c>
       <c r="H46" s="14"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="31"/>
-      <c r="P46" s="31"/>
-      <c r="Q46" s="31"/>
-      <c r="R46" s="31"/>
-      <c r="S46" s="31"/>
-      <c r="T46" s="31"/>
-      <c r="U46" s="31"/>
-      <c r="V46" s="31"/>
-      <c r="W46" s="31"/>
-      <c r="X46" s="31"/>
-      <c r="Y46" s="31"/>
-      <c r="Z46" s="31"/>
-      <c r="AA46" s="31"/>
-      <c r="AB46" s="31"/>
-      <c r="AC46" s="31"/>
-      <c r="AD46" s="31"/>
-      <c r="AE46" s="31"/>
-      <c r="AF46" s="31"/>
-      <c r="AG46" s="31"/>
-      <c r="AH46" s="31"/>
-      <c r="AI46" s="31"/>
-      <c r="AJ46" s="31"/>
-      <c r="AK46" s="31"/>
-      <c r="AL46" s="31"/>
-      <c r="AM46" s="31"/>
-      <c r="AN46" s="31"/>
-      <c r="AO46" s="31"/>
-      <c r="AP46" s="31"/>
-      <c r="AQ46" s="31"/>
-      <c r="AR46" s="31"/>
-      <c r="AS46" s="31"/>
-      <c r="AT46" s="31"/>
-      <c r="AU46" s="31"/>
-      <c r="AV46" s="31"/>
-      <c r="AW46" s="31"/>
-      <c r="AX46" s="31"/>
-      <c r="AY46" s="31"/>
-      <c r="AZ46" s="31"/>
-      <c r="BA46" s="31"/>
-      <c r="BB46" s="31"/>
-      <c r="BC46" s="31"/>
-      <c r="BD46" s="31"/>
-      <c r="BE46" s="31"/>
-      <c r="BF46" s="31"/>
-      <c r="BG46" s="31"/>
-      <c r="BH46" s="31"/>
-      <c r="BI46" s="31"/>
-      <c r="BJ46" s="32"/>
-      <c r="BK46" s="33"/>
-      <c r="BL46" s="33"/>
-      <c r="BM46" s="33"/>
-      <c r="BN46" s="33"/>
-      <c r="BO46" s="34"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="25"/>
+      <c r="R46" s="25"/>
+      <c r="S46" s="25"/>
+      <c r="T46" s="25"/>
+      <c r="U46" s="25"/>
+      <c r="V46" s="25"/>
+      <c r="W46" s="25"/>
+      <c r="X46" s="25"/>
+      <c r="Y46" s="25"/>
+      <c r="Z46" s="25"/>
+      <c r="AA46" s="25"/>
+      <c r="AB46" s="25"/>
+      <c r="AC46" s="25"/>
+      <c r="AD46" s="25"/>
+      <c r="AE46" s="25"/>
+      <c r="AF46" s="25"/>
+      <c r="AG46" s="25"/>
+      <c r="AH46" s="25"/>
+      <c r="AI46" s="25"/>
+      <c r="AJ46" s="25"/>
+      <c r="AK46" s="25"/>
+      <c r="AL46" s="25"/>
+      <c r="AM46" s="25"/>
+      <c r="AN46" s="25"/>
+      <c r="AO46" s="25"/>
+      <c r="AP46" s="25"/>
+      <c r="AQ46" s="25"/>
+      <c r="AR46" s="25"/>
+      <c r="AS46" s="25"/>
+      <c r="AT46" s="25"/>
+      <c r="AU46" s="25"/>
+      <c r="AV46" s="25"/>
+      <c r="AW46" s="25"/>
+      <c r="AX46" s="25"/>
+      <c r="AY46" s="25"/>
+      <c r="AZ46" s="25"/>
+      <c r="BA46" s="25"/>
+      <c r="BB46" s="25"/>
+      <c r="BC46" s="25"/>
+      <c r="BD46" s="25"/>
+      <c r="BE46" s="25"/>
+      <c r="BF46" s="25"/>
+      <c r="BG46" s="25"/>
+      <c r="BH46" s="25"/>
+      <c r="BI46" s="25"/>
+      <c r="BJ46" s="26"/>
+      <c r="BK46" s="27"/>
+      <c r="BL46" s="27"/>
+      <c r="BM46" s="27"/>
+      <c r="BN46" s="27"/>
+      <c r="BO46" s="28"/>
     </row>
     <row r="47" spans="1:68" x14ac:dyDescent="0.45">
       <c r="BO47" s="2"/>

--- a/docs/スケジュール/ポーカー改修スケジュール.xlsx
+++ b/docs/スケジュール/ポーカー改修スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709A469F-F5C7-41FF-9AA4-DA413F41A00C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A131DE8-5054-4B21-A33F-1C7BCFC92EC0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="7764" activeTab="1" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
@@ -2153,8 +2153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1353E68-709A-4869-9FB5-3F7A241FCBD2}">
   <dimension ref="A1:BP47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3111,7 +3111,7 @@
         <v>43492</v>
       </c>
       <c r="G33" s="9">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H33" s="13"/>
       <c r="AH33" s="34"/>
@@ -3132,7 +3132,7 @@
         <v>43492</v>
       </c>
       <c r="G34" s="9">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H34" s="13"/>
       <c r="AI34" s="29"/>
@@ -3152,7 +3152,7 @@
         <v>43505</v>
       </c>
       <c r="G35" s="9">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H35" s="13"/>
       <c r="AU35" s="26"/>

--- a/docs/スケジュール/ポーカー改修スケジュール.xlsx
+++ b/docs/スケジュール/ポーカー改修スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A131DE8-5054-4B21-A33F-1C7BCFC92EC0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94623255-01FD-4EDA-AD7B-F099154701DB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="7764" activeTab="1" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
@@ -2153,8 +2153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1353E68-709A-4869-9FB5-3F7A241FCBD2}">
   <dimension ref="A1:BP47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3173,7 +3173,7 @@
         <v>43506</v>
       </c>
       <c r="G36" s="9">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H36" s="13"/>
       <c r="AV36" s="33"/>
@@ -3194,7 +3194,7 @@
         <v>43507</v>
       </c>
       <c r="G37" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H37" s="13" t="s">
         <v>37</v>

--- a/docs/スケジュール/ポーカー改修スケジュール.xlsx
+++ b/docs/スケジュール/ポーカー改修スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94623255-01FD-4EDA-AD7B-F099154701DB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA977185-5F50-4685-9EE7-72C4A9A6B172}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="7764" activeTab="1" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
@@ -2153,8 +2153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1353E68-709A-4869-9FB5-3F7A241FCBD2}">
   <dimension ref="A1:BP47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3194,7 +3194,7 @@
         <v>43507</v>
       </c>
       <c r="G37" s="9">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H37" s="13" t="s">
         <v>37</v>
@@ -3246,7 +3246,7 @@
         <v>43508</v>
       </c>
       <c r="G39" s="9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H39" s="13"/>
       <c r="AV39" s="34"/>

--- a/docs/スケジュール/ポーカー改修スケジュール.xlsx
+++ b/docs/スケジュール/ポーカー改修スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA977185-5F50-4685-9EE7-72C4A9A6B172}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7190E8DE-616A-4EF5-A2EE-22F2E46F0E4A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="7764" activeTab="1" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
@@ -2153,8 +2153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1353E68-709A-4869-9FB5-3F7A241FCBD2}">
   <dimension ref="A1:BP47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3194,7 +3194,7 @@
         <v>43507</v>
       </c>
       <c r="G37" s="9">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H37" s="13" t="s">
         <v>37</v>

--- a/docs/スケジュール/ポーカー改修スケジュール.xlsx
+++ b/docs/スケジュール/ポーカー改修スケジュール.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7190E8DE-616A-4EF5-A2EE-22F2E46F0E4A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04A38B9-5043-499D-B0F0-9E6BE1A2FACA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="7764" activeTab="1" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="7764" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
   <sheets>
-    <sheet name="元々のスケジュール " sheetId="2" r:id="rId1"/>
-    <sheet name="リスケ後スケジュール" sheetId="1" r:id="rId2"/>
+    <sheet name="リスケ後スケジュール(最新)" sheetId="3" r:id="rId1"/>
+    <sheet name="元々のスケジュール " sheetId="2" r:id="rId2"/>
+    <sheet name="リスケ後スケジュール" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="44">
   <si>
     <t>タスク</t>
     <phoneticPr fontId="1"/>
@@ -400,6 +401,50 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>指摘対応</t>
+    <rPh sb="0" eb="2">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面側単体テストのテストケース作成</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バグ対応</t>
+    <rPh sb="2" eb="4">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドキュメント更新</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -408,7 +453,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,8 +485,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,6 +516,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,7 +906,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -957,6 +1016,57 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="55" fontId="2" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1291,6 +1401,1835 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD45A19-11D3-4938-B61D-97468415F699}">
+  <dimension ref="A1:CT55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.69921875" customWidth="1"/>
+    <col min="2" max="2" width="4.8984375" customWidth="1"/>
+    <col min="3" max="3" width="22.69921875" customWidth="1"/>
+    <col min="5" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.19921875" customWidth="1"/>
+    <col min="9" max="101" width="3.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:98" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I1" s="54">
+        <v>43466</v>
+      </c>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="57">
+        <v>43497</v>
+      </c>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="58"/>
+      <c r="BB1" s="58"/>
+      <c r="BC1" s="58"/>
+      <c r="BD1" s="58"/>
+      <c r="BE1" s="58"/>
+      <c r="BF1" s="58"/>
+      <c r="BG1" s="58"/>
+      <c r="BH1" s="58"/>
+      <c r="BI1" s="58"/>
+      <c r="BJ1" s="58"/>
+      <c r="BK1" s="58"/>
+      <c r="BL1" s="58"/>
+      <c r="BM1" s="58"/>
+      <c r="BN1" s="58"/>
+      <c r="BO1" s="59"/>
+      <c r="BP1" s="54">
+        <v>43525</v>
+      </c>
+      <c r="BQ1" s="55"/>
+      <c r="BR1" s="55"/>
+      <c r="BS1" s="55"/>
+      <c r="BT1" s="55"/>
+      <c r="BU1" s="55"/>
+      <c r="BV1" s="55"/>
+      <c r="BW1" s="55"/>
+      <c r="BX1" s="55"/>
+      <c r="BY1" s="55"/>
+      <c r="BZ1" s="55"/>
+      <c r="CA1" s="55"/>
+      <c r="CB1" s="55"/>
+      <c r="CC1" s="55"/>
+      <c r="CD1" s="55"/>
+      <c r="CE1" s="55"/>
+      <c r="CF1" s="55"/>
+      <c r="CG1" s="55"/>
+      <c r="CH1" s="55"/>
+      <c r="CI1" s="55"/>
+      <c r="CJ1" s="55"/>
+      <c r="CK1" s="55"/>
+      <c r="CL1" s="55"/>
+      <c r="CM1" s="55"/>
+      <c r="CN1" s="55"/>
+      <c r="CO1" s="55"/>
+      <c r="CP1" s="55"/>
+      <c r="CQ1" s="55"/>
+      <c r="CR1" s="55"/>
+      <c r="CS1" s="55"/>
+      <c r="CT1" s="56"/>
+    </row>
+    <row r="2" spans="1:98" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="20">
+        <v>1</v>
+      </c>
+      <c r="J2" s="21">
+        <v>2</v>
+      </c>
+      <c r="K2" s="21">
+        <v>3</v>
+      </c>
+      <c r="L2" s="21">
+        <v>4</v>
+      </c>
+      <c r="M2" s="21">
+        <v>5</v>
+      </c>
+      <c r="N2" s="21">
+        <v>6</v>
+      </c>
+      <c r="O2" s="21">
+        <v>7</v>
+      </c>
+      <c r="P2" s="21">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="21">
+        <v>9</v>
+      </c>
+      <c r="R2" s="21">
+        <v>10</v>
+      </c>
+      <c r="S2" s="21">
+        <v>11</v>
+      </c>
+      <c r="T2" s="21">
+        <v>12</v>
+      </c>
+      <c r="U2" s="21">
+        <v>13</v>
+      </c>
+      <c r="V2" s="21">
+        <v>14</v>
+      </c>
+      <c r="W2" s="21">
+        <v>15</v>
+      </c>
+      <c r="X2" s="21">
+        <v>16</v>
+      </c>
+      <c r="Y2" s="21">
+        <v>17</v>
+      </c>
+      <c r="Z2" s="21">
+        <v>18</v>
+      </c>
+      <c r="AA2" s="21">
+        <v>19</v>
+      </c>
+      <c r="AB2" s="21">
+        <v>20</v>
+      </c>
+      <c r="AC2" s="21">
+        <v>21</v>
+      </c>
+      <c r="AD2" s="21">
+        <v>22</v>
+      </c>
+      <c r="AE2" s="21">
+        <v>23</v>
+      </c>
+      <c r="AF2" s="21">
+        <v>24</v>
+      </c>
+      <c r="AG2" s="21">
+        <v>25</v>
+      </c>
+      <c r="AH2" s="21">
+        <v>26</v>
+      </c>
+      <c r="AI2" s="21">
+        <v>27</v>
+      </c>
+      <c r="AJ2" s="21">
+        <v>28</v>
+      </c>
+      <c r="AK2" s="21">
+        <v>29</v>
+      </c>
+      <c r="AL2" s="21">
+        <v>30</v>
+      </c>
+      <c r="AM2" s="21">
+        <v>31</v>
+      </c>
+      <c r="AN2" s="21">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="21">
+        <v>2</v>
+      </c>
+      <c r="AP2" s="21">
+        <v>3</v>
+      </c>
+      <c r="AQ2" s="21">
+        <v>4</v>
+      </c>
+      <c r="AR2" s="21">
+        <v>5</v>
+      </c>
+      <c r="AS2" s="21">
+        <v>6</v>
+      </c>
+      <c r="AT2" s="21">
+        <v>7</v>
+      </c>
+      <c r="AU2" s="21">
+        <v>8</v>
+      </c>
+      <c r="AV2" s="21">
+        <v>9</v>
+      </c>
+      <c r="AW2" s="21">
+        <v>10</v>
+      </c>
+      <c r="AX2" s="21">
+        <v>11</v>
+      </c>
+      <c r="AY2" s="21">
+        <v>12</v>
+      </c>
+      <c r="AZ2" s="21">
+        <v>13</v>
+      </c>
+      <c r="BA2" s="21">
+        <v>14</v>
+      </c>
+      <c r="BB2" s="21">
+        <v>15</v>
+      </c>
+      <c r="BC2" s="21">
+        <v>16</v>
+      </c>
+      <c r="BD2" s="21">
+        <v>17</v>
+      </c>
+      <c r="BE2" s="21">
+        <v>18</v>
+      </c>
+      <c r="BF2" s="21">
+        <v>19</v>
+      </c>
+      <c r="BG2" s="21">
+        <v>20</v>
+      </c>
+      <c r="BH2" s="21">
+        <v>21</v>
+      </c>
+      <c r="BI2" s="21">
+        <v>22</v>
+      </c>
+      <c r="BJ2" s="21">
+        <v>23</v>
+      </c>
+      <c r="BK2" s="21">
+        <v>24</v>
+      </c>
+      <c r="BL2" s="21">
+        <v>25</v>
+      </c>
+      <c r="BM2" s="21">
+        <v>26</v>
+      </c>
+      <c r="BN2" s="21">
+        <v>27</v>
+      </c>
+      <c r="BO2" s="21">
+        <v>28</v>
+      </c>
+      <c r="BP2" s="20">
+        <v>1</v>
+      </c>
+      <c r="BQ2" s="21">
+        <v>2</v>
+      </c>
+      <c r="BR2" s="21">
+        <v>3</v>
+      </c>
+      <c r="BS2" s="21">
+        <v>4</v>
+      </c>
+      <c r="BT2" s="21">
+        <v>5</v>
+      </c>
+      <c r="BU2" s="21">
+        <v>6</v>
+      </c>
+      <c r="BV2" s="21">
+        <v>7</v>
+      </c>
+      <c r="BW2" s="21">
+        <v>8</v>
+      </c>
+      <c r="BX2" s="21">
+        <v>9</v>
+      </c>
+      <c r="BY2" s="21">
+        <v>10</v>
+      </c>
+      <c r="BZ2" s="21">
+        <v>11</v>
+      </c>
+      <c r="CA2" s="21">
+        <v>12</v>
+      </c>
+      <c r="CB2" s="21">
+        <v>13</v>
+      </c>
+      <c r="CC2" s="21">
+        <v>14</v>
+      </c>
+      <c r="CD2" s="21">
+        <v>15</v>
+      </c>
+      <c r="CE2" s="21">
+        <v>16</v>
+      </c>
+      <c r="CF2" s="21">
+        <v>17</v>
+      </c>
+      <c r="CG2" s="21">
+        <v>18</v>
+      </c>
+      <c r="CH2" s="21">
+        <v>19</v>
+      </c>
+      <c r="CI2" s="21">
+        <v>20</v>
+      </c>
+      <c r="CJ2" s="21">
+        <v>21</v>
+      </c>
+      <c r="CK2" s="21">
+        <v>22</v>
+      </c>
+      <c r="CL2" s="21">
+        <v>23</v>
+      </c>
+      <c r="CM2" s="21">
+        <v>24</v>
+      </c>
+      <c r="CN2" s="21">
+        <v>25</v>
+      </c>
+      <c r="CO2" s="21">
+        <v>26</v>
+      </c>
+      <c r="CP2" s="21">
+        <v>27</v>
+      </c>
+      <c r="CQ2" s="21">
+        <v>28</v>
+      </c>
+      <c r="CR2" s="21">
+        <v>29</v>
+      </c>
+      <c r="CS2" s="21">
+        <v>30</v>
+      </c>
+      <c r="CT2" s="21">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="5">
+        <v>43487</v>
+      </c>
+      <c r="F3" s="5">
+        <v>43490</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="28"/>
+      <c r="BO3" s="38"/>
+      <c r="BP3" s="2"/>
+      <c r="CT3" s="22"/>
+    </row>
+    <row r="4" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="5">
+        <v>43487</v>
+      </c>
+      <c r="F4" s="5">
+        <v>43489</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="36"/>
+      <c r="BO4" s="2"/>
+      <c r="BP4" s="2"/>
+      <c r="CT4" s="23"/>
+    </row>
+    <row r="5" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="5">
+        <v>43487</v>
+      </c>
+      <c r="F5" s="5">
+        <v>43489</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="28"/>
+      <c r="BO5" s="2"/>
+      <c r="BP5" s="2"/>
+      <c r="CT5" s="23"/>
+    </row>
+    <row r="6" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="5">
+        <v>43487</v>
+      </c>
+      <c r="F6" s="5">
+        <v>43489</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="28"/>
+      <c r="BO6" s="2"/>
+      <c r="BP6" s="2"/>
+      <c r="CT6" s="23"/>
+    </row>
+    <row r="7" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="5">
+        <v>43487</v>
+      </c>
+      <c r="F7" s="5">
+        <v>43489</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="28"/>
+      <c r="BO7" s="2"/>
+      <c r="BP7" s="2"/>
+      <c r="CT7" s="23"/>
+    </row>
+    <row r="8" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="5">
+        <v>43487</v>
+      </c>
+      <c r="F8" s="5">
+        <v>43489</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="28"/>
+      <c r="BO8" s="2"/>
+      <c r="BP8" s="2"/>
+      <c r="CT8" s="23"/>
+    </row>
+    <row r="9" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="5">
+        <v>43488</v>
+      </c>
+      <c r="F9" s="5">
+        <v>43489</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="28"/>
+      <c r="BO9" s="2"/>
+      <c r="BP9" s="2"/>
+      <c r="CT9" s="23"/>
+    </row>
+    <row r="10" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="5">
+        <v>43488</v>
+      </c>
+      <c r="F10" s="5">
+        <v>43488</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="AE10" s="29"/>
+      <c r="BO10" s="2"/>
+      <c r="BP10" s="2"/>
+      <c r="CT10" s="23"/>
+    </row>
+    <row r="11" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="5">
+        <v>43488</v>
+      </c>
+      <c r="F11" s="5">
+        <v>43488</v>
+      </c>
+      <c r="G11" s="9">
+        <v>1</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="AE11" s="30"/>
+      <c r="BO11" s="2"/>
+      <c r="BP11" s="2"/>
+      <c r="CT11" s="23"/>
+    </row>
+    <row r="12" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="5">
+        <v>43488</v>
+      </c>
+      <c r="F12" s="5">
+        <v>43489</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="28"/>
+      <c r="BO12" s="2"/>
+      <c r="BP12" s="2"/>
+      <c r="CT12" s="23"/>
+    </row>
+    <row r="13" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="5">
+        <v>43488</v>
+      </c>
+      <c r="F13" s="5">
+        <v>43489</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="28"/>
+      <c r="BO13" s="2"/>
+      <c r="BP13" s="2"/>
+      <c r="CT13" s="23"/>
+    </row>
+    <row r="14" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="5">
+        <v>43490</v>
+      </c>
+      <c r="F14" s="5">
+        <v>43491</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="28"/>
+      <c r="BO14" s="2"/>
+      <c r="BP14" s="2"/>
+      <c r="CT14" s="23"/>
+    </row>
+    <row r="15" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="5">
+        <v>43490</v>
+      </c>
+      <c r="F15" s="5">
+        <v>43490</v>
+      </c>
+      <c r="G15" s="9">
+        <v>1</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="AG15" s="30"/>
+      <c r="BO15" s="2"/>
+      <c r="BP15" s="2"/>
+      <c r="CT15" s="23"/>
+    </row>
+    <row r="16" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="5">
+        <v>43487</v>
+      </c>
+      <c r="F16" s="5">
+        <v>43491</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="28"/>
+      <c r="BO16" s="2"/>
+      <c r="BP16" s="2"/>
+      <c r="CT16" s="23"/>
+    </row>
+    <row r="17" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="5">
+        <v>43487</v>
+      </c>
+      <c r="F17" s="5">
+        <v>43489</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="AD17" s="26"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="28"/>
+      <c r="BO17" s="2"/>
+      <c r="BP17" s="2"/>
+      <c r="CT17" s="23"/>
+    </row>
+    <row r="18" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="5">
+        <v>43487</v>
+      </c>
+      <c r="F18" s="5">
+        <v>43489</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="28"/>
+      <c r="BO18" s="2"/>
+      <c r="BP18" s="2"/>
+      <c r="CT18" s="23"/>
+    </row>
+    <row r="19" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="5">
+        <v>43487</v>
+      </c>
+      <c r="F19" s="5">
+        <v>43489</v>
+      </c>
+      <c r="G19" s="9">
+        <v>1</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="AD19" s="26"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="28"/>
+      <c r="BO19" s="2"/>
+      <c r="BP19" s="2"/>
+      <c r="CT19" s="23"/>
+    </row>
+    <row r="20" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="5">
+        <v>43487</v>
+      </c>
+      <c r="F20" s="5">
+        <v>43489</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="AD20" s="26"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="28"/>
+      <c r="BO20" s="2"/>
+      <c r="BP20" s="2"/>
+      <c r="CT20" s="23"/>
+    </row>
+    <row r="21" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="5">
+        <v>43487</v>
+      </c>
+      <c r="F21" s="5">
+        <v>43489</v>
+      </c>
+      <c r="G21" s="9">
+        <v>1</v>
+      </c>
+      <c r="H21" s="13"/>
+      <c r="AD21" s="26"/>
+      <c r="AE21" s="31"/>
+      <c r="AF21" s="32"/>
+      <c r="BO21" s="2"/>
+      <c r="BP21" s="2"/>
+      <c r="CT21" s="23"/>
+    </row>
+    <row r="22" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="5">
+        <v>43488</v>
+      </c>
+      <c r="F22" s="5">
+        <v>43490</v>
+      </c>
+      <c r="G22" s="9">
+        <v>1</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="28"/>
+      <c r="BO22" s="2"/>
+      <c r="BP22" s="2"/>
+      <c r="CT22" s="23"/>
+    </row>
+    <row r="23" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="5">
+        <v>43488</v>
+      </c>
+      <c r="F23" s="5">
+        <v>43490</v>
+      </c>
+      <c r="G23" s="9">
+        <v>1</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="28"/>
+      <c r="BO23" s="2"/>
+      <c r="BP23" s="2"/>
+      <c r="CT23" s="23"/>
+    </row>
+    <row r="24" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="5">
+        <v>43490</v>
+      </c>
+      <c r="F24" s="5">
+        <v>43490</v>
+      </c>
+      <c r="G24" s="9">
+        <v>1</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="AG24" s="30"/>
+      <c r="BO24" s="2"/>
+      <c r="BP24" s="2"/>
+      <c r="CT24" s="23"/>
+    </row>
+    <row r="25" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="5">
+        <v>43489</v>
+      </c>
+      <c r="F25" s="5">
+        <v>43490</v>
+      </c>
+      <c r="G25" s="9">
+        <v>1</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="AF25" s="26"/>
+      <c r="AG25" s="28"/>
+      <c r="BO25" s="2"/>
+      <c r="BP25" s="2"/>
+      <c r="CT25" s="23"/>
+    </row>
+    <row r="26" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="5">
+        <v>43490</v>
+      </c>
+      <c r="F26" s="5">
+        <v>43490</v>
+      </c>
+      <c r="G26" s="9">
+        <v>1</v>
+      </c>
+      <c r="H26" s="13"/>
+      <c r="AG26" s="30"/>
+      <c r="BO26" s="2"/>
+      <c r="BP26" s="2"/>
+      <c r="CT26" s="23"/>
+    </row>
+    <row r="27" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="5">
+        <v>43490</v>
+      </c>
+      <c r="F27" s="5">
+        <v>43491</v>
+      </c>
+      <c r="G27" s="9">
+        <v>1</v>
+      </c>
+      <c r="H27" s="13"/>
+      <c r="AG27" s="26"/>
+      <c r="AH27" s="28"/>
+      <c r="BO27" s="2"/>
+      <c r="BP27" s="2"/>
+      <c r="CT27" s="23"/>
+    </row>
+    <row r="28" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="5">
+        <v>43490</v>
+      </c>
+      <c r="F28" s="5">
+        <v>43491</v>
+      </c>
+      <c r="G28" s="9">
+        <v>1</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG28" s="26"/>
+      <c r="AH28" s="28"/>
+      <c r="BO28" s="2"/>
+      <c r="BP28" s="2"/>
+      <c r="CT28" s="23"/>
+    </row>
+    <row r="29" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="5">
+        <v>43490</v>
+      </c>
+      <c r="F29" s="5">
+        <v>43491</v>
+      </c>
+      <c r="G29" s="9">
+        <v>1</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG29" s="26"/>
+      <c r="AH29" s="28"/>
+      <c r="BO29" s="2"/>
+      <c r="BP29" s="2"/>
+      <c r="CT29" s="23"/>
+    </row>
+    <row r="30" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="5">
+        <v>43490</v>
+      </c>
+      <c r="F30" s="5">
+        <v>43491</v>
+      </c>
+      <c r="G30" s="9">
+        <v>1</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG30" s="26"/>
+      <c r="AH30" s="28"/>
+      <c r="BO30" s="2"/>
+      <c r="BP30" s="2"/>
+      <c r="CT30" s="23"/>
+    </row>
+    <row r="31" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="5">
+        <v>43490</v>
+      </c>
+      <c r="F31" s="5">
+        <v>43491</v>
+      </c>
+      <c r="G31" s="9">
+        <v>1</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG31" s="26"/>
+      <c r="AH31" s="32"/>
+      <c r="BO31" s="2"/>
+      <c r="BP31" s="2"/>
+      <c r="CT31" s="23"/>
+    </row>
+    <row r="32" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="5">
+        <v>43491</v>
+      </c>
+      <c r="F32" s="5">
+        <v>43519</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0</v>
+      </c>
+      <c r="H32" s="13"/>
+      <c r="AH32" s="26"/>
+      <c r="AI32" s="27"/>
+      <c r="AJ32" s="27"/>
+      <c r="AK32" s="27"/>
+      <c r="AL32" s="27"/>
+      <c r="AM32" s="27"/>
+      <c r="AN32" s="27"/>
+      <c r="AO32" s="27"/>
+      <c r="AP32" s="27"/>
+      <c r="AQ32" s="27"/>
+      <c r="AR32" s="27"/>
+      <c r="AS32" s="27"/>
+      <c r="AT32" s="27"/>
+      <c r="AU32" s="27"/>
+      <c r="AV32" s="27"/>
+      <c r="AW32" s="27"/>
+      <c r="AX32" s="41"/>
+      <c r="AY32" s="41"/>
+      <c r="AZ32" s="41"/>
+      <c r="BA32" s="41"/>
+      <c r="BB32" s="41"/>
+      <c r="BC32" s="41"/>
+      <c r="BD32" s="41"/>
+      <c r="BE32" s="41"/>
+      <c r="BF32" s="41"/>
+      <c r="BG32" s="41"/>
+      <c r="BH32" s="41"/>
+      <c r="BI32" s="41"/>
+      <c r="BJ32" s="42"/>
+      <c r="BO32" s="2"/>
+      <c r="BP32" s="2"/>
+      <c r="CT32" s="23"/>
+    </row>
+    <row r="33" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="5">
+        <v>43491</v>
+      </c>
+      <c r="F33" s="5">
+        <v>43492</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="H33" s="13"/>
+      <c r="AH33" s="34"/>
+      <c r="AI33" s="36"/>
+      <c r="BO33" s="2"/>
+      <c r="BP33" s="2"/>
+      <c r="CT33" s="23"/>
+    </row>
+    <row r="34" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="5">
+        <v>43492</v>
+      </c>
+      <c r="F34" s="5">
+        <v>43492</v>
+      </c>
+      <c r="G34" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="H34" s="13"/>
+      <c r="AI34" s="29"/>
+      <c r="BO34" s="2"/>
+      <c r="BP34" s="2"/>
+      <c r="CT34" s="23"/>
+    </row>
+    <row r="35" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="5">
+        <v>43504</v>
+      </c>
+      <c r="F35" s="5">
+        <v>43505</v>
+      </c>
+      <c r="G35" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="H35" s="13"/>
+      <c r="AU35" s="26"/>
+      <c r="AV35" s="32"/>
+      <c r="BO35" s="2"/>
+      <c r="BP35" s="2"/>
+      <c r="CT35" s="23"/>
+    </row>
+    <row r="36" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="5">
+        <v>43505</v>
+      </c>
+      <c r="F36" s="5">
+        <v>43506</v>
+      </c>
+      <c r="G36" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="H36" s="13"/>
+      <c r="AV36" s="33"/>
+      <c r="AW36" s="32"/>
+      <c r="BO36" s="2"/>
+      <c r="BP36" s="2"/>
+      <c r="CT36" s="23"/>
+    </row>
+    <row r="37" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="5">
+        <v>43505</v>
+      </c>
+      <c r="F37" s="5">
+        <v>43507</v>
+      </c>
+      <c r="G37" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AV37" s="26"/>
+      <c r="AW37" s="27"/>
+      <c r="AX37" s="28"/>
+      <c r="BO37" s="2"/>
+      <c r="BP37" s="2"/>
+      <c r="CT37" s="23"/>
+    </row>
+    <row r="38" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="1"/>
+      <c r="B38" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="5">
+        <v>43508</v>
+      </c>
+      <c r="F38" s="5">
+        <v>43519</v>
+      </c>
+      <c r="G38" s="9">
+        <v>0</v>
+      </c>
+      <c r="H38" s="13"/>
+      <c r="AV38" s="11"/>
+      <c r="AW38" s="11"/>
+      <c r="AX38" s="11"/>
+      <c r="BO38" s="2"/>
+      <c r="BP38" s="2"/>
+      <c r="CT38" s="23"/>
+    </row>
+    <row r="39" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="1"/>
+      <c r="B39" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="5">
+        <v>43508</v>
+      </c>
+      <c r="F39" s="5">
+        <v>43519</v>
+      </c>
+      <c r="G39" s="9">
+        <v>0</v>
+      </c>
+      <c r="H39" s="13"/>
+      <c r="AV39" s="11"/>
+      <c r="AW39" s="11"/>
+      <c r="AX39" s="11"/>
+      <c r="BO39" s="2"/>
+      <c r="BP39" s="2"/>
+      <c r="CT39" s="23"/>
+    </row>
+    <row r="40" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="1"/>
+      <c r="B40" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="5">
+        <v>43514</v>
+      </c>
+      <c r="F40" s="5">
+        <v>43517</v>
+      </c>
+      <c r="G40" s="9">
+        <v>0</v>
+      </c>
+      <c r="H40" s="13"/>
+      <c r="AV40" s="11"/>
+      <c r="AW40" s="11"/>
+      <c r="AX40" s="11"/>
+      <c r="BE40" s="40"/>
+      <c r="BF40" s="41"/>
+      <c r="BG40" s="41"/>
+      <c r="BH40" s="42"/>
+      <c r="BO40" s="2"/>
+      <c r="BP40" s="2"/>
+      <c r="CT40" s="23"/>
+    </row>
+    <row r="41" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="5">
+        <v>43505</v>
+      </c>
+      <c r="F41" s="5">
+        <v>43520</v>
+      </c>
+      <c r="G41" s="9">
+        <v>0</v>
+      </c>
+      <c r="H41" s="13"/>
+      <c r="AV41" s="40"/>
+      <c r="AW41" s="41"/>
+      <c r="AX41" s="48"/>
+      <c r="AY41" s="41"/>
+      <c r="AZ41" s="41"/>
+      <c r="BA41" s="41"/>
+      <c r="BB41" s="41"/>
+      <c r="BC41" s="41"/>
+      <c r="BD41" s="41"/>
+      <c r="BE41" s="41"/>
+      <c r="BF41" s="41"/>
+      <c r="BG41" s="41"/>
+      <c r="BH41" s="41"/>
+      <c r="BI41" s="41"/>
+      <c r="BJ41" s="41"/>
+      <c r="BK41" s="42"/>
+      <c r="BO41" s="2"/>
+      <c r="BP41" s="2"/>
+      <c r="CT41" s="23"/>
+    </row>
+    <row r="42" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="5">
+        <v>43505</v>
+      </c>
+      <c r="F42" s="5">
+        <v>43512</v>
+      </c>
+      <c r="G42" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="H42" s="13"/>
+      <c r="AV42" s="34"/>
+      <c r="AW42" s="35"/>
+      <c r="AX42" s="27"/>
+      <c r="AY42" s="41"/>
+      <c r="AZ42" s="41"/>
+      <c r="BA42" s="41"/>
+      <c r="BB42" s="41"/>
+      <c r="BC42" s="42"/>
+      <c r="BO42" s="2"/>
+      <c r="BP42" s="2"/>
+      <c r="CT42" s="23"/>
+    </row>
+    <row r="43" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="1"/>
+      <c r="B43" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="5">
+        <v>43510</v>
+      </c>
+      <c r="F43" s="5">
+        <v>43511</v>
+      </c>
+      <c r="G43" s="9">
+        <v>0</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV43" s="11"/>
+      <c r="AW43" s="11"/>
+      <c r="AX43" s="11"/>
+      <c r="AY43" s="11"/>
+      <c r="BA43" s="47"/>
+      <c r="BB43" s="49"/>
+      <c r="BO43" s="2"/>
+      <c r="BP43" s="2"/>
+      <c r="CT43" s="23"/>
+    </row>
+    <row r="44" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="5">
+        <v>43512</v>
+      </c>
+      <c r="F44" s="5">
+        <v>43512</v>
+      </c>
+      <c r="G44" s="9">
+        <v>0</v>
+      </c>
+      <c r="H44" s="13"/>
+      <c r="AZ44" s="11"/>
+      <c r="BA44" s="11"/>
+      <c r="BB44" s="11"/>
+      <c r="BC44" s="45"/>
+      <c r="BO44" s="2"/>
+      <c r="BP44" s="2"/>
+      <c r="CT44" s="23"/>
+    </row>
+    <row r="45" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="5">
+        <v>43512</v>
+      </c>
+      <c r="F45" s="5">
+        <v>43512</v>
+      </c>
+      <c r="G45" s="9">
+        <v>0</v>
+      </c>
+      <c r="H45" s="13"/>
+      <c r="BB45" s="11"/>
+      <c r="BC45" s="46"/>
+      <c r="BO45" s="2"/>
+      <c r="BP45" s="2"/>
+      <c r="CT45" s="23"/>
+    </row>
+    <row r="46" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="5">
+        <v>43512</v>
+      </c>
+      <c r="F46" s="5">
+        <v>43513</v>
+      </c>
+      <c r="G46" s="9">
+        <v>0</v>
+      </c>
+      <c r="H46" s="13"/>
+      <c r="BC46" s="26"/>
+      <c r="BD46" s="28"/>
+      <c r="BO46" s="2"/>
+      <c r="BP46" s="2"/>
+      <c r="CT46" s="23"/>
+    </row>
+    <row r="47" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="5">
+        <v>43512</v>
+      </c>
+      <c r="F47" s="5">
+        <v>43513</v>
+      </c>
+      <c r="G47" s="9">
+        <v>0</v>
+      </c>
+      <c r="H47" s="13"/>
+      <c r="BC47" s="26"/>
+      <c r="BD47" s="28"/>
+      <c r="BO47" s="2"/>
+      <c r="BP47" s="2"/>
+      <c r="CT47" s="23"/>
+    </row>
+    <row r="48" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="1"/>
+      <c r="B48" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="5">
+        <v>43513</v>
+      </c>
+      <c r="F48" s="5">
+        <v>43520</v>
+      </c>
+      <c r="G48" s="9">
+        <v>0</v>
+      </c>
+      <c r="H48" s="13"/>
+      <c r="AV48" s="11"/>
+      <c r="AW48" s="11"/>
+      <c r="AX48" s="11"/>
+      <c r="BD48" s="40"/>
+      <c r="BE48" s="41"/>
+      <c r="BF48" s="41"/>
+      <c r="BG48" s="41"/>
+      <c r="BH48" s="41"/>
+      <c r="BI48" s="41"/>
+      <c r="BJ48" s="41"/>
+      <c r="BK48" s="42"/>
+      <c r="BO48" s="2"/>
+      <c r="BP48" s="2"/>
+      <c r="CT48" s="23"/>
+    </row>
+    <row r="49" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="1"/>
+      <c r="B49" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="5">
+        <v>43514</v>
+      </c>
+      <c r="F49" s="5">
+        <v>43520</v>
+      </c>
+      <c r="G49" s="9">
+        <v>0</v>
+      </c>
+      <c r="H49" s="13"/>
+      <c r="AV49" s="11"/>
+      <c r="AW49" s="11"/>
+      <c r="AX49" s="11"/>
+      <c r="BE49" s="43"/>
+      <c r="BF49" s="48"/>
+      <c r="BG49" s="48"/>
+      <c r="BH49" s="48"/>
+      <c r="BI49" s="48"/>
+      <c r="BJ49" s="48"/>
+      <c r="BK49" s="44"/>
+      <c r="BO49" s="2"/>
+      <c r="BP49" s="2"/>
+      <c r="CT49" s="23"/>
+    </row>
+    <row r="50" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="1"/>
+      <c r="B50" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="5">
+        <v>43514</v>
+      </c>
+      <c r="F50" s="5">
+        <v>43517</v>
+      </c>
+      <c r="G50" s="9">
+        <v>0</v>
+      </c>
+      <c r="H50" s="13"/>
+      <c r="BC50" s="11"/>
+      <c r="BD50" s="11"/>
+      <c r="BE50" s="43"/>
+      <c r="BF50" s="48"/>
+      <c r="BG50" s="48"/>
+      <c r="BH50" s="44"/>
+      <c r="BO50" s="2"/>
+      <c r="BP50" s="2"/>
+      <c r="CT50" s="23"/>
+    </row>
+    <row r="51" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="5">
+        <v>43514</v>
+      </c>
+      <c r="F51" s="5">
+        <v>43527</v>
+      </c>
+      <c r="G51" s="9">
+        <v>0</v>
+      </c>
+      <c r="H51" s="13"/>
+      <c r="BE51" s="26"/>
+      <c r="BF51" s="27"/>
+      <c r="BG51" s="27"/>
+      <c r="BH51" s="27"/>
+      <c r="BI51" s="27"/>
+      <c r="BJ51" s="27"/>
+      <c r="BK51" s="27"/>
+      <c r="BL51" s="27"/>
+      <c r="BM51" s="27"/>
+      <c r="BN51" s="27"/>
+      <c r="BO51" s="41"/>
+      <c r="BP51" s="41"/>
+      <c r="BQ51" s="41"/>
+      <c r="BR51" s="42"/>
+      <c r="CT51" s="23"/>
+    </row>
+    <row r="52" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="1"/>
+      <c r="B52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="5">
+        <v>43514</v>
+      </c>
+      <c r="F52" s="5">
+        <v>43518</v>
+      </c>
+      <c r="G52" s="9">
+        <v>0</v>
+      </c>
+      <c r="H52" s="13"/>
+      <c r="BE52" s="26"/>
+      <c r="BF52" s="27"/>
+      <c r="BG52" s="27"/>
+      <c r="BH52" s="27"/>
+      <c r="BI52" s="28"/>
+      <c r="BO52" s="2"/>
+      <c r="BP52" s="2"/>
+      <c r="CT52" s="23"/>
+    </row>
+    <row r="53" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="1"/>
+      <c r="B53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="37">
+        <v>43521</v>
+      </c>
+      <c r="F53" s="5">
+        <v>43524</v>
+      </c>
+      <c r="G53" s="9">
+        <v>0</v>
+      </c>
+      <c r="H53" s="13"/>
+      <c r="BE53" s="11"/>
+      <c r="BF53" s="11"/>
+      <c r="BG53" s="11"/>
+      <c r="BH53" s="11"/>
+      <c r="BI53" s="11"/>
+      <c r="BL53" s="51"/>
+      <c r="BM53" s="52"/>
+      <c r="BN53" s="52"/>
+      <c r="BO53" s="53"/>
+      <c r="BP53" s="2"/>
+      <c r="CT53" s="23"/>
+    </row>
+    <row r="54" spans="1:98" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A54" s="3"/>
+      <c r="B54" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="8">
+        <v>43525</v>
+      </c>
+      <c r="F54" s="8">
+        <v>43527</v>
+      </c>
+      <c r="G54" s="10">
+        <v>0</v>
+      </c>
+      <c r="H54" s="14"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="25"/>
+      <c r="Q54" s="25"/>
+      <c r="R54" s="25"/>
+      <c r="S54" s="25"/>
+      <c r="T54" s="25"/>
+      <c r="U54" s="25"/>
+      <c r="V54" s="25"/>
+      <c r="W54" s="25"/>
+      <c r="X54" s="25"/>
+      <c r="Y54" s="25"/>
+      <c r="Z54" s="25"/>
+      <c r="AA54" s="25"/>
+      <c r="AB54" s="25"/>
+      <c r="AC54" s="25"/>
+      <c r="AD54" s="25"/>
+      <c r="AE54" s="25"/>
+      <c r="AF54" s="25"/>
+      <c r="AG54" s="25"/>
+      <c r="AH54" s="25"/>
+      <c r="AI54" s="25"/>
+      <c r="AJ54" s="25"/>
+      <c r="AK54" s="25"/>
+      <c r="AL54" s="25"/>
+      <c r="AM54" s="25"/>
+      <c r="AN54" s="25"/>
+      <c r="AO54" s="25"/>
+      <c r="AP54" s="25"/>
+      <c r="AQ54" s="25"/>
+      <c r="AR54" s="25"/>
+      <c r="AS54" s="25"/>
+      <c r="AT54" s="25"/>
+      <c r="AU54" s="25"/>
+      <c r="AV54" s="25"/>
+      <c r="AW54" s="25"/>
+      <c r="AX54" s="25"/>
+      <c r="AY54" s="25"/>
+      <c r="AZ54" s="25"/>
+      <c r="BA54" s="25"/>
+      <c r="BB54" s="25"/>
+      <c r="BC54" s="25"/>
+      <c r="BD54" s="25"/>
+      <c r="BE54" s="25"/>
+      <c r="BF54" s="25"/>
+      <c r="BG54" s="25"/>
+      <c r="BH54" s="25"/>
+      <c r="BI54" s="25"/>
+      <c r="BJ54" s="50"/>
+      <c r="BK54" s="50"/>
+      <c r="BL54" s="50"/>
+      <c r="BM54" s="50"/>
+      <c r="BN54" s="50"/>
+      <c r="BO54" s="50"/>
+      <c r="BP54" s="40"/>
+      <c r="BQ54" s="41"/>
+      <c r="BR54" s="42"/>
+      <c r="BS54" s="25"/>
+      <c r="BT54" s="25"/>
+      <c r="BU54" s="25"/>
+      <c r="BV54" s="25"/>
+      <c r="BW54" s="25"/>
+      <c r="BX54" s="25"/>
+      <c r="BY54" s="25"/>
+      <c r="BZ54" s="25"/>
+      <c r="CA54" s="25"/>
+      <c r="CB54" s="25"/>
+      <c r="CC54" s="25"/>
+      <c r="CD54" s="25"/>
+      <c r="CE54" s="25"/>
+      <c r="CF54" s="25"/>
+      <c r="CG54" s="25"/>
+      <c r="CH54" s="25"/>
+      <c r="CI54" s="25"/>
+      <c r="CJ54" s="25"/>
+      <c r="CK54" s="25"/>
+      <c r="CL54" s="25"/>
+      <c r="CM54" s="25"/>
+      <c r="CN54" s="25"/>
+      <c r="CO54" s="25"/>
+      <c r="CP54" s="25"/>
+      <c r="CQ54" s="25"/>
+      <c r="CR54" s="25"/>
+      <c r="CS54" s="25"/>
+      <c r="CT54" s="39"/>
+    </row>
+    <row r="55" spans="1:98" x14ac:dyDescent="0.45">
+      <c r="BO55" s="2"/>
+      <c r="BP55" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="I1:AM1"/>
+    <mergeCell ref="AN1:BO1"/>
+    <mergeCell ref="BP1:CT1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDC7E2F-D109-46AD-B52B-D6BBA8DA626E}">
   <dimension ref="A1:I44"/>
   <sheetViews>
@@ -2149,11 +4088,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1353E68-709A-4869-9FB5-3F7A241FCBD2}">
   <dimension ref="A1:BP47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
@@ -2169,69 +4108,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I1" s="37">
+      <c r="I1" s="54">
         <v>43466</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="40">
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="57">
         <v>43497</v>
       </c>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-      <c r="AV1" s="41"/>
-      <c r="AW1" s="41"/>
-      <c r="AX1" s="41"/>
-      <c r="AY1" s="41"/>
-      <c r="AZ1" s="41"/>
-      <c r="BA1" s="41"/>
-      <c r="BB1" s="41"/>
-      <c r="BC1" s="41"/>
-      <c r="BD1" s="41"/>
-      <c r="BE1" s="41"/>
-      <c r="BF1" s="41"/>
-      <c r="BG1" s="41"/>
-      <c r="BH1" s="41"/>
-      <c r="BI1" s="41"/>
-      <c r="BJ1" s="41"/>
-      <c r="BK1" s="41"/>
-      <c r="BL1" s="41"/>
-      <c r="BM1" s="41"/>
-      <c r="BN1" s="41"/>
-      <c r="BO1" s="42"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="58"/>
+      <c r="BB1" s="58"/>
+      <c r="BC1" s="58"/>
+      <c r="BD1" s="58"/>
+      <c r="BE1" s="58"/>
+      <c r="BF1" s="58"/>
+      <c r="BG1" s="58"/>
+      <c r="BH1" s="58"/>
+      <c r="BI1" s="58"/>
+      <c r="BJ1" s="58"/>
+      <c r="BK1" s="58"/>
+      <c r="BL1" s="58"/>
+      <c r="BM1" s="58"/>
+      <c r="BN1" s="58"/>
+      <c r="BO1" s="59"/>
     </row>
     <row r="2" spans="1:67" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="16" t="s">

--- a/docs/スケジュール/ポーカー改修スケジュール.xlsx
+++ b/docs/スケジュール/ポーカー改修スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04A38B9-5043-499D-B0F0-9E6BE1A2FACA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3B189F-4A8A-4F59-8CF7-D3C09F6F5A80}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="7764" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
@@ -906,7 +906,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1086,6 +1086,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1405,7 +1408,7 @@
   <dimension ref="A1:CT55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="BS45" sqref="BS45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2682,6 +2685,18 @@
       <c r="AV38" s="11"/>
       <c r="AW38" s="11"/>
       <c r="AX38" s="11"/>
+      <c r="AY38" s="40"/>
+      <c r="AZ38" s="41"/>
+      <c r="BA38" s="41"/>
+      <c r="BB38" s="41"/>
+      <c r="BC38" s="41"/>
+      <c r="BD38" s="41"/>
+      <c r="BE38" s="41"/>
+      <c r="BF38" s="41"/>
+      <c r="BG38" s="41"/>
+      <c r="BH38" s="41"/>
+      <c r="BI38" s="41"/>
+      <c r="BJ38" s="42"/>
       <c r="BO38" s="2"/>
       <c r="BP38" s="2"/>
       <c r="CT38" s="23"/>
@@ -2706,6 +2721,18 @@
       <c r="AV39" s="11"/>
       <c r="AW39" s="11"/>
       <c r="AX39" s="11"/>
+      <c r="AY39" s="40"/>
+      <c r="AZ39" s="41"/>
+      <c r="BA39" s="41"/>
+      <c r="BB39" s="41"/>
+      <c r="BC39" s="41"/>
+      <c r="BD39" s="41"/>
+      <c r="BE39" s="41"/>
+      <c r="BF39" s="41"/>
+      <c r="BG39" s="41"/>
+      <c r="BH39" s="41"/>
+      <c r="BI39" s="41"/>
+      <c r="BJ39" s="42"/>
       <c r="BO39" s="2"/>
       <c r="BP39" s="2"/>
       <c r="CT39" s="23"/>
@@ -2730,10 +2757,10 @@
       <c r="AV40" s="11"/>
       <c r="AW40" s="11"/>
       <c r="AX40" s="11"/>
-      <c r="BE40" s="40"/>
-      <c r="BF40" s="41"/>
-      <c r="BG40" s="41"/>
-      <c r="BH40" s="42"/>
+      <c r="BE40" s="47"/>
+      <c r="BF40" s="60"/>
+      <c r="BG40" s="60"/>
+      <c r="BH40" s="49"/>
       <c r="BO40" s="2"/>
       <c r="BP40" s="2"/>
       <c r="CT40" s="23"/>
@@ -2983,9 +3010,9 @@
       <c r="BF49" s="48"/>
       <c r="BG49" s="48"/>
       <c r="BH49" s="48"/>
-      <c r="BI49" s="48"/>
-      <c r="BJ49" s="48"/>
-      <c r="BK49" s="44"/>
+      <c r="BI49" s="41"/>
+      <c r="BJ49" s="41"/>
+      <c r="BK49" s="42"/>
       <c r="BO49" s="2"/>
       <c r="BP49" s="2"/>
       <c r="CT49" s="23"/>

--- a/docs/スケジュール/ポーカー改修スケジュール.xlsx
+++ b/docs/スケジュール/ポーカー改修スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3B189F-4A8A-4F59-8CF7-D3C09F6F5A80}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293F1D0D-90FE-4664-973A-B84EB8E4321F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="7764" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
@@ -906,7 +906,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1039,9 +1039,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1069,6 +1066,9 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="55" fontId="2" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1086,9 +1086,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1408,7 +1405,10 @@
   <dimension ref="A1:CT55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BS45" sqref="BS45"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I35" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2745,10 +2745,10 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="5">
-        <v>43514</v>
+        <v>43512</v>
       </c>
       <c r="F40" s="5">
-        <v>43517</v>
+        <v>43513</v>
       </c>
       <c r="G40" s="9">
         <v>0</v>
@@ -2757,10 +2757,12 @@
       <c r="AV40" s="11"/>
       <c r="AW40" s="11"/>
       <c r="AX40" s="11"/>
-      <c r="BE40" s="47"/>
-      <c r="BF40" s="60"/>
-      <c r="BG40" s="60"/>
-      <c r="BH40" s="49"/>
+      <c r="BC40" s="40"/>
+      <c r="BD40" s="42"/>
+      <c r="BE40" s="11"/>
+      <c r="BF40" s="11"/>
+      <c r="BG40" s="11"/>
+      <c r="BH40" s="11"/>
       <c r="BO40" s="2"/>
       <c r="BP40" s="2"/>
       <c r="CT40" s="23"/>
@@ -2784,7 +2786,7 @@
       <c r="H41" s="13"/>
       <c r="AV41" s="40"/>
       <c r="AW41" s="41"/>
-      <c r="AX41" s="48"/>
+      <c r="AX41" s="47"/>
       <c r="AY41" s="41"/>
       <c r="AZ41" s="41"/>
       <c r="BA41" s="41"/>
@@ -2816,7 +2818,7 @@
         <v>43512</v>
       </c>
       <c r="G42" s="9">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H42" s="13"/>
       <c r="AV42" s="34"/>
@@ -2854,8 +2856,8 @@
       <c r="AW43" s="11"/>
       <c r="AX43" s="11"/>
       <c r="AY43" s="11"/>
-      <c r="BA43" s="47"/>
-      <c r="BB43" s="49"/>
+      <c r="BA43" s="46"/>
+      <c r="BB43" s="48"/>
       <c r="BO43" s="2"/>
       <c r="BP43" s="2"/>
       <c r="CT43" s="23"/>
@@ -2874,13 +2876,13 @@
         <v>43512</v>
       </c>
       <c r="G44" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H44" s="13"/>
       <c r="AZ44" s="11"/>
       <c r="BA44" s="11"/>
       <c r="BB44" s="11"/>
-      <c r="BC44" s="45"/>
+      <c r="BC44" s="44"/>
       <c r="BO44" s="2"/>
       <c r="BP44" s="2"/>
       <c r="CT44" s="23"/>
@@ -2899,11 +2901,11 @@
         <v>43512</v>
       </c>
       <c r="G45" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H45" s="13"/>
       <c r="BB45" s="11"/>
-      <c r="BC45" s="46"/>
+      <c r="BC45" s="45"/>
       <c r="BO45" s="2"/>
       <c r="BP45" s="2"/>
       <c r="CT45" s="23"/>
@@ -2957,7 +2959,7 @@
     <row r="48" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="1"/>
       <c r="B48" s="11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -2965,23 +2967,14 @@
         <v>43513</v>
       </c>
       <c r="F48" s="5">
-        <v>43520</v>
+        <v>43513</v>
       </c>
       <c r="G48" s="9">
         <v>0</v>
       </c>
       <c r="H48" s="13"/>
-      <c r="AV48" s="11"/>
-      <c r="AW48" s="11"/>
-      <c r="AX48" s="11"/>
-      <c r="BD48" s="40"/>
-      <c r="BE48" s="41"/>
-      <c r="BF48" s="41"/>
-      <c r="BG48" s="41"/>
-      <c r="BH48" s="41"/>
-      <c r="BI48" s="41"/>
-      <c r="BJ48" s="41"/>
-      <c r="BK48" s="42"/>
+      <c r="BC48" s="53"/>
+      <c r="BD48" s="29"/>
       <c r="BO48" s="2"/>
       <c r="BP48" s="2"/>
       <c r="CT48" s="23"/>
@@ -2989,12 +2982,12 @@
     <row r="49" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="1"/>
       <c r="B49" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
-        <v>43514</v>
+        <v>43513</v>
       </c>
       <c r="F49" s="5">
         <v>43520</v>
@@ -3006,10 +2999,11 @@
       <c r="AV49" s="11"/>
       <c r="AW49" s="11"/>
       <c r="AX49" s="11"/>
-      <c r="BE49" s="43"/>
-      <c r="BF49" s="48"/>
-      <c r="BG49" s="48"/>
-      <c r="BH49" s="48"/>
+      <c r="BD49" s="40"/>
+      <c r="BE49" s="41"/>
+      <c r="BF49" s="41"/>
+      <c r="BG49" s="41"/>
+      <c r="BH49" s="41"/>
       <c r="BI49" s="41"/>
       <c r="BJ49" s="41"/>
       <c r="BK49" s="42"/>
@@ -3020,7 +3014,7 @@
     <row r="50" spans="1:98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="1"/>
       <c r="B50" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -3028,18 +3022,22 @@
         <v>43514</v>
       </c>
       <c r="F50" s="5">
-        <v>43517</v>
+        <v>43520</v>
       </c>
       <c r="G50" s="9">
         <v>0</v>
       </c>
       <c r="H50" s="13"/>
-      <c r="BC50" s="11"/>
-      <c r="BD50" s="11"/>
+      <c r="AV50" s="11"/>
+      <c r="AW50" s="11"/>
+      <c r="AX50" s="11"/>
       <c r="BE50" s="43"/>
-      <c r="BF50" s="48"/>
-      <c r="BG50" s="48"/>
-      <c r="BH50" s="44"/>
+      <c r="BF50" s="47"/>
+      <c r="BG50" s="47"/>
+      <c r="BH50" s="47"/>
+      <c r="BI50" s="41"/>
+      <c r="BJ50" s="41"/>
+      <c r="BK50" s="42"/>
       <c r="BO50" s="2"/>
       <c r="BP50" s="2"/>
       <c r="CT50" s="23"/>
@@ -3125,10 +3123,10 @@
       <c r="BG53" s="11"/>
       <c r="BH53" s="11"/>
       <c r="BI53" s="11"/>
-      <c r="BL53" s="51"/>
-      <c r="BM53" s="52"/>
-      <c r="BN53" s="52"/>
-      <c r="BO53" s="53"/>
+      <c r="BL53" s="50"/>
+      <c r="BM53" s="51"/>
+      <c r="BN53" s="51"/>
+      <c r="BO53" s="52"/>
       <c r="BP53" s="2"/>
       <c r="CT53" s="23"/>
     </row>
@@ -3202,12 +3200,12 @@
       <c r="BG54" s="25"/>
       <c r="BH54" s="25"/>
       <c r="BI54" s="25"/>
-      <c r="BJ54" s="50"/>
-      <c r="BK54" s="50"/>
-      <c r="BL54" s="50"/>
-      <c r="BM54" s="50"/>
-      <c r="BN54" s="50"/>
-      <c r="BO54" s="50"/>
+      <c r="BJ54" s="49"/>
+      <c r="BK54" s="49"/>
+      <c r="BL54" s="49"/>
+      <c r="BM54" s="49"/>
+      <c r="BN54" s="49"/>
+      <c r="BO54" s="49"/>
       <c r="BP54" s="40"/>
       <c r="BQ54" s="41"/>
       <c r="BR54" s="42"/>

--- a/docs/スケジュール/ポーカー改修スケジュール.xlsx
+++ b/docs/スケジュール/ポーカー改修スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293F1D0D-90FE-4664-973A-B84EB8E4321F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FAEEEF-E4DC-49FD-B855-86534ABB2C16}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="7764" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
@@ -1405,10 +1405,10 @@
   <dimension ref="A1:CT55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G46" sqref="G46"/>
+      <selection pane="bottomRight" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2562,7 +2562,7 @@
         <v>43492</v>
       </c>
       <c r="G33" s="9">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H33" s="13"/>
       <c r="AH33" s="34"/>
@@ -2585,7 +2585,7 @@
         <v>43492</v>
       </c>
       <c r="G34" s="9">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H34" s="13"/>
       <c r="AI34" s="29"/>
@@ -2607,7 +2607,7 @@
         <v>43505</v>
       </c>
       <c r="G35" s="9">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H35" s="13"/>
       <c r="AU35" s="26"/>
@@ -2630,7 +2630,7 @@
         <v>43506</v>
       </c>
       <c r="G36" s="9">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H36" s="13"/>
       <c r="AV36" s="33"/>
@@ -2653,7 +2653,7 @@
         <v>43507</v>
       </c>
       <c r="G37" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H37" s="13" t="s">
         <v>37</v>
@@ -2818,7 +2818,7 @@
         <v>43512</v>
       </c>
       <c r="G42" s="9">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H42" s="13"/>
       <c r="AV42" s="34"/>
@@ -2847,7 +2847,7 @@
         <v>43511</v>
       </c>
       <c r="G43" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="13" t="s">
         <v>38</v>
@@ -2876,7 +2876,7 @@
         <v>43512</v>
       </c>
       <c r="G44" s="9">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H44" s="13"/>
       <c r="AZ44" s="11"/>
@@ -2901,7 +2901,7 @@
         <v>43512</v>
       </c>
       <c r="G45" s="9">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H45" s="13"/>
       <c r="BB45" s="11"/>
@@ -2924,7 +2924,7 @@
         <v>43513</v>
       </c>
       <c r="G46" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" s="13"/>
       <c r="BC46" s="26"/>
@@ -2947,7 +2947,7 @@
         <v>43513</v>
       </c>
       <c r="G47" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" s="13"/>
       <c r="BC47" s="26"/>

--- a/docs/スケジュール/ポーカー改修スケジュール.xlsx
+++ b/docs/スケジュール/ポーカー改修スケジュール.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FAEEEF-E4DC-49FD-B855-86534ABB2C16}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9DAB26-D7E0-467D-8958-E345204CC4A7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="7764" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
   <sheets>
     <sheet name="リスケ後スケジュール(最新)" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="46">
   <si>
     <t>タスク</t>
     <phoneticPr fontId="1"/>
@@ -443,6 +443,32 @@
     <rPh sb="6" eb="8">
       <t>コウシン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結合テストケース作成を優先させるため、23(土)・24(日)に実施</t>
+    <rPh sb="0" eb="2">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結合テストケース作成を優先させるため、23(土)・24(日)に実施</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1405,10 +1431,10 @@
   <dimension ref="A1:CT55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G48" sqref="G48"/>
+      <selection pane="bottomRight" activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1417,7 +1443,7 @@
     <col min="2" max="2" width="4.8984375" customWidth="1"/>
     <col min="3" max="3" width="22.69921875" customWidth="1"/>
     <col min="5" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.19921875" customWidth="1"/>
+    <col min="8" max="8" width="58.3984375" customWidth="1"/>
     <col min="9" max="101" width="3.296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2753,7 +2779,9 @@
       <c r="G40" s="9">
         <v>0</v>
       </c>
-      <c r="H40" s="13"/>
+      <c r="H40" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="AV40" s="11"/>
       <c r="AW40" s="11"/>
       <c r="AX40" s="11"/>
@@ -2972,7 +3000,9 @@
       <c r="G48" s="9">
         <v>0</v>
       </c>
-      <c r="H48" s="13"/>
+      <c r="H48" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="BC48" s="53"/>
       <c r="BD48" s="29"/>
       <c r="BO48" s="2"/>
@@ -3089,7 +3119,7 @@
         <v>43518</v>
       </c>
       <c r="G52" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H52" s="13"/>
       <c r="BE52" s="26"/>

--- a/docs/スケジュール/ポーカー改修スケジュール.xlsx
+++ b/docs/スケジュール/ポーカー改修スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9DAB26-D7E0-467D-8958-E345204CC4A7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A076B74D-5FB8-485A-A0F5-F1463DD882D0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
@@ -1434,7 +1434,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G53" sqref="G53"/>
+      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2538,7 +2538,7 @@
         <v>43519</v>
       </c>
       <c r="G32" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H32" s="13"/>
       <c r="AH32" s="26"/>
@@ -2705,7 +2705,7 @@
         <v>43519</v>
       </c>
       <c r="G38" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="13"/>
       <c r="AV38" s="11"/>
@@ -2741,7 +2741,7 @@
         <v>43519</v>
       </c>
       <c r="G39" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H39" s="13"/>
       <c r="AV39" s="11"/>
@@ -2809,7 +2809,7 @@
         <v>43520</v>
       </c>
       <c r="G41" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H41" s="13"/>
       <c r="AV41" s="40"/>
@@ -3023,7 +3023,7 @@
         <v>43520</v>
       </c>
       <c r="G49" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" s="13"/>
       <c r="AV49" s="11"/>
@@ -3055,7 +3055,7 @@
         <v>43520</v>
       </c>
       <c r="G50" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H50" s="13"/>
       <c r="AV50" s="11"/>
@@ -3086,7 +3086,7 @@
         <v>43527</v>
       </c>
       <c r="G51" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H51" s="13"/>
       <c r="BE51" s="26"/>
@@ -3119,7 +3119,7 @@
         <v>43518</v>
       </c>
       <c r="G52" s="9">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H52" s="13"/>
       <c r="BE52" s="26"/>

--- a/docs/スケジュール/ポーカー改修スケジュール.xlsx
+++ b/docs/スケジュール/ポーカー改修スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A076B74D-5FB8-485A-A0F5-F1463DD882D0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5E8EB9-8371-450D-8C2B-C927287047D3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
@@ -1431,10 +1431,10 @@
   <dimension ref="A1:CT55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2741,7 +2741,7 @@
         <v>43519</v>
       </c>
       <c r="G39" s="9">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H39" s="13"/>
       <c r="AV39" s="11"/>
@@ -2777,7 +2777,7 @@
         <v>43513</v>
       </c>
       <c r="G40" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>44</v>
@@ -2998,7 +2998,7 @@
         <v>43513</v>
       </c>
       <c r="G48" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>45</v>
@@ -3055,7 +3055,7 @@
         <v>43520</v>
       </c>
       <c r="G50" s="9">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H50" s="13"/>
       <c r="AV50" s="11"/>

--- a/docs/スケジュール/ポーカー改修スケジュール.xlsx
+++ b/docs/スケジュール/ポーカー改修スケジュール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5E8EB9-8371-450D-8C2B-C927287047D3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3843D92-840B-4825-A49E-45D258C32C2A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
+    <workbookView xWindow="1068" yWindow="1176" windowWidth="21816" windowHeight="9816" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
   <sheets>
     <sheet name="リスケ後スケジュール(最新)" sheetId="3" r:id="rId1"/>
@@ -1430,11 +1430,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD45A19-11D3-4938-B61D-97468415F699}">
   <dimension ref="A1:CT55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I26" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2741,7 +2741,7 @@
         <v>43519</v>
       </c>
       <c r="G39" s="9">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H39" s="13"/>
       <c r="AV39" s="11"/>
@@ -3055,7 +3055,7 @@
         <v>43520</v>
       </c>
       <c r="G50" s="9">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H50" s="13"/>
       <c r="AV50" s="11"/>
@@ -3086,7 +3086,7 @@
         <v>43527</v>
       </c>
       <c r="G51" s="9">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H51" s="13"/>
       <c r="BE51" s="26"/>
@@ -3119,7 +3119,7 @@
         <v>43518</v>
       </c>
       <c r="G52" s="9">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H52" s="13"/>
       <c r="BE52" s="26"/>

--- a/docs/スケジュール/ポーカー改修スケジュール.xlsx
+++ b/docs/スケジュール/ポーカー改修スケジュール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3843D92-840B-4825-A49E-45D258C32C2A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FFAE5E-0332-455F-8FD6-2766CDEF4133}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="1176" windowWidth="21816" windowHeight="9816" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
+    <workbookView xWindow="300" yWindow="2148" windowWidth="21816" windowHeight="9816" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
   <sheets>
     <sheet name="リスケ後スケジュール(最新)" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="46">
   <si>
     <t>タスク</t>
     <phoneticPr fontId="1"/>
@@ -1431,7 +1431,7 @@
   <dimension ref="A1:CT55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="G52" sqref="G52"/>
@@ -2538,7 +2538,7 @@
         <v>43519</v>
       </c>
       <c r="G32" s="9">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H32" s="13"/>
       <c r="AH32" s="26"/>
@@ -2741,7 +2741,7 @@
         <v>43519</v>
       </c>
       <c r="G39" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H39" s="13"/>
       <c r="AV39" s="11"/>
@@ -2777,7 +2777,7 @@
         <v>43513</v>
       </c>
       <c r="G40" s="9">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>44</v>
@@ -2809,7 +2809,7 @@
         <v>43520</v>
       </c>
       <c r="G41" s="9">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H41" s="13"/>
       <c r="AV41" s="40"/>
@@ -2998,7 +2998,7 @@
         <v>43513</v>
       </c>
       <c r="G48" s="9">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>45</v>
@@ -3055,7 +3055,7 @@
         <v>43520</v>
       </c>
       <c r="G50" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H50" s="13"/>
       <c r="AV50" s="11"/>
@@ -3086,7 +3086,7 @@
         <v>43527</v>
       </c>
       <c r="G51" s="9">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H51" s="13"/>
       <c r="BE51" s="26"/>
@@ -3119,7 +3119,7 @@
         <v>43518</v>
       </c>
       <c r="G52" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H52" s="13"/>
       <c r="BE52" s="26"/>
@@ -3145,7 +3145,7 @@
         <v>43524</v>
       </c>
       <c r="G53" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" s="13"/>
       <c r="BE53" s="11"/>

--- a/docs/スケジュール/ポーカー改修スケジュール.xlsx
+++ b/docs/スケジュール/ポーカー改修スケジュール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FFAE5E-0332-455F-8FD6-2766CDEF4133}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2057CAB-AF73-4753-8B06-DC4007F1F219}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="2148" windowWidth="21816" windowHeight="9816" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
+    <workbookView xWindow="1224" yWindow="2544" windowWidth="21816" windowHeight="9816" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
   <sheets>
     <sheet name="リスケ後スケジュール(最新)" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="46">
   <si>
     <t>タスク</t>
     <phoneticPr fontId="1"/>
@@ -1431,7 +1431,7 @@
   <dimension ref="A1:CT55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="G52" sqref="G52"/>
@@ -3086,7 +3086,7 @@
         <v>43527</v>
       </c>
       <c r="G51" s="9">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H51" s="13"/>
       <c r="BE51" s="26"/>
@@ -3174,7 +3174,7 @@
         <v>43527</v>
       </c>
       <c r="G54" s="10">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H54" s="14"/>
       <c r="I54" s="24"/>

--- a/docs/スケジュール/ポーカー改修スケジュール.xlsx
+++ b/docs/スケジュール/ポーカー改修スケジュール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2057CAB-AF73-4753-8B06-DC4007F1F219}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A045910F-8E09-46AC-8EE2-91A4F7A6A563}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1224" yWindow="2544" windowWidth="21816" windowHeight="9816" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
   <sheets>
     <sheet name="リスケ後スケジュール(最新)" sheetId="3" r:id="rId1"/>
@@ -1431,10 +1431,10 @@
   <dimension ref="A1:CT55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G52" sqref="G52"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3086,7 +3086,7 @@
         <v>43527</v>
       </c>
       <c r="G51" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H51" s="13"/>
       <c r="BE51" s="26"/>
@@ -3174,7 +3174,7 @@
         <v>43527</v>
       </c>
       <c r="G54" s="10">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H54" s="14"/>
       <c r="I54" s="24"/>
